--- a/eg_data/NHANES/PF/30_Waist.xlsx
+++ b/eg_data/NHANES/PF/30_Waist.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sadoh\OneDrive\Documents\GitHub\DietR\eg_data\NHANES\PF\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2F25201E-B464-4974-A508-23FAD5CC764C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D48F7785-4391-473B-AF33-FB61950BB413}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="30300" yWindow="-2910" windowWidth="18600" windowHeight="15255" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="23655" yWindow="-2130" windowWidth="17730" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Waist" sheetId="1" r:id="rId1"/>
@@ -231,7 +231,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" quotePrefix="1" applyFill="1"/>
@@ -253,14 +253,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="11" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="11" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="11" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="11" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -543,8 +536,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H113"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A75" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="J75" sqref="J75"/>
+    <sheetView tabSelected="1" topLeftCell="A88" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="L14" sqref="L14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -651,10 +644,10 @@
       <c r="B13" t="s">
         <v>16</v>
       </c>
-      <c r="C13">
+      <c r="C13" s="6">
         <v>101.070029821074</v>
       </c>
-      <c r="D13">
+      <c r="D13" s="6">
         <v>0.37793058391335799</v>
       </c>
       <c r="E13">
@@ -674,10 +667,10 @@
       <c r="B14" t="s">
         <v>16</v>
       </c>
-      <c r="C14">
+      <c r="C14" s="6">
         <v>100.65545746388401</v>
       </c>
-      <c r="D14">
+      <c r="D14" s="6">
         <v>0.48024959303737902</v>
       </c>
       <c r="E14">
@@ -697,10 +690,10 @@
       <c r="B15" t="s">
         <v>16</v>
       </c>
-      <c r="C15">
+      <c r="C15" s="6">
         <v>98.910594315245504</v>
       </c>
-      <c r="D15">
+      <c r="D15" s="6">
         <v>0.86172867368585604</v>
       </c>
       <c r="E15">
@@ -720,10 +713,10 @@
       <c r="B16" t="s">
         <v>16</v>
       </c>
-      <c r="C16">
+      <c r="C16" s="6">
         <v>95.789312977099399</v>
       </c>
-      <c r="D16">
+      <c r="D16" s="6">
         <v>0.85512529151967198</v>
       </c>
       <c r="E16">
@@ -746,10 +739,10 @@
       <c r="B17" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="C17" s="4">
+      <c r="C17" s="5">
         <v>0.41457235718915902</v>
       </c>
-      <c r="D17" s="4">
+      <c r="D17" s="5">
         <v>0.61112289915339901</v>
       </c>
       <c r="E17" s="4">
@@ -766,106 +759,106 @@
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A18" s="21" t="s">
-        <v>16</v>
-      </c>
-      <c r="B18" s="21" t="s">
+      <c r="A18" t="s">
+        <v>16</v>
+      </c>
+      <c r="B18" t="s">
         <v>18</v>
       </c>
-      <c r="C18" s="21">
+      <c r="C18" s="6">
         <v>2.15943550582816</v>
       </c>
-      <c r="D18" s="21">
+      <c r="D18" s="6">
         <v>0.94096112210307903</v>
       </c>
-      <c r="E18" s="21">
+      <c r="E18">
         <v>4034</v>
       </c>
-      <c r="F18" s="21">
+      <c r="F18">
         <v>-0.48332836157632802</v>
       </c>
-      <c r="G18" s="21">
+      <c r="G18">
         <v>4.8021993732326598</v>
       </c>
-      <c r="H18" s="21">
+      <c r="H18">
         <v>9.9338185053338093E-2</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A19" s="21" t="s">
-        <v>16</v>
-      </c>
-      <c r="B19" s="22" t="s">
+      <c r="A19" t="s">
+        <v>16</v>
+      </c>
+      <c r="B19" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="C19" s="22">
+      <c r="C19" s="10">
         <v>5.28071684397427</v>
       </c>
-      <c r="D19" s="21">
+      <c r="D19" s="6">
         <v>0.93491753136503697</v>
       </c>
-      <c r="E19" s="21">
+      <c r="E19">
         <v>4034</v>
       </c>
-      <c r="F19" s="21">
+      <c r="F19">
         <v>2.6549268800145698</v>
       </c>
-      <c r="G19" s="21">
+      <c r="G19">
         <v>7.9065068079339698</v>
       </c>
-      <c r="H19" s="23">
+      <c r="H19" s="20">
         <v>1.3083981342809599E-7</v>
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A20" s="21" t="s">
-        <v>16</v>
-      </c>
-      <c r="B20" s="21" t="s">
+      <c r="A20" t="s">
+        <v>16</v>
+      </c>
+      <c r="B20" t="s">
         <v>20</v>
       </c>
-      <c r="C20" s="21">
+      <c r="C20" s="6">
         <v>1.7448631486390001</v>
       </c>
-      <c r="D20" s="21">
+      <c r="D20" s="6">
         <v>0.98651709496842599</v>
       </c>
-      <c r="E20" s="21">
+      <c r="E20">
         <v>4034</v>
       </c>
-      <c r="F20" s="21">
+      <c r="F20">
         <v>-1.0258482781332099</v>
       </c>
-      <c r="G20" s="21">
+      <c r="G20">
         <v>4.51557457541122</v>
       </c>
-      <c r="H20" s="21">
+      <c r="H20">
         <v>0.28864657034097602</v>
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A21" s="21" t="s">
-        <v>16</v>
-      </c>
-      <c r="B21" s="21" t="s">
+      <c r="A21" t="s">
+        <v>16</v>
+      </c>
+      <c r="B21" t="s">
         <v>21</v>
       </c>
-      <c r="C21" s="21">
+      <c r="C21" s="6">
         <v>4.8661444867851102</v>
       </c>
-      <c r="D21" s="21">
+      <c r="D21" s="6">
         <v>0.98075426882026295</v>
       </c>
-      <c r="E21" s="21">
+      <c r="E21">
         <v>4034</v>
       </c>
-      <c r="F21" s="21">
+      <c r="F21">
         <v>2.1116184138609499</v>
       </c>
-      <c r="G21" s="21">
+      <c r="G21">
         <v>7.6206705597092697</v>
       </c>
-      <c r="H21" s="24">
+      <c r="H21" s="11">
         <v>4.3666491608140803E-6</v>
       </c>
     </row>
@@ -876,10 +869,10 @@
       <c r="B22" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="C22" s="7">
+      <c r="C22" s="8">
         <v>3.12128133814611</v>
       </c>
-      <c r="D22" s="7">
+      <c r="D22" s="8">
         <v>1.2140080606194401</v>
       </c>
       <c r="E22" s="7">
@@ -1055,106 +1048,106 @@
       </c>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A37" s="21" t="s">
-        <v>16</v>
-      </c>
-      <c r="B37" s="21" t="s">
+      <c r="A37" t="s">
+        <v>16</v>
+      </c>
+      <c r="B37" t="s">
         <v>18</v>
       </c>
-      <c r="C37" s="25">
+      <c r="C37" s="6">
         <v>2.52818998083763</v>
       </c>
-      <c r="D37" s="21">
+      <c r="D37">
         <v>0.91468384475662101</v>
       </c>
-      <c r="E37" s="21">
+      <c r="E37">
         <v>4032</v>
       </c>
-      <c r="F37" s="21">
+      <c r="F37">
         <v>-4.0772772644675402E-2</v>
       </c>
-      <c r="G37" s="21">
+      <c r="G37">
         <v>5.0971527343199403</v>
       </c>
-      <c r="H37" s="21">
+      <c r="H37">
         <v>2.92809407145228E-2</v>
       </c>
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A38" s="21" t="s">
-        <v>16</v>
-      </c>
-      <c r="B38" s="22" t="s">
+      <c r="A38" t="s">
+        <v>16</v>
+      </c>
+      <c r="B38" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="C38" s="26">
+      <c r="C38" s="10">
         <v>5.7916816311335797</v>
       </c>
-      <c r="D38" s="21">
+      <c r="D38">
         <v>0.90909064164911302</v>
       </c>
-      <c r="E38" s="21">
+      <c r="E38">
         <v>4032</v>
       </c>
-      <c r="F38" s="21">
+      <c r="F38">
         <v>3.2384278360396999</v>
       </c>
-      <c r="G38" s="21">
+      <c r="G38">
         <v>8.3449354262274493</v>
       </c>
-      <c r="H38" s="23">
+      <c r="H38" s="20">
         <v>2.8252192807443099E-8</v>
       </c>
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A39" s="21" t="s">
-        <v>16</v>
-      </c>
-      <c r="B39" s="21" t="s">
+      <c r="A39" t="s">
+        <v>16</v>
+      </c>
+      <c r="B39" t="s">
         <v>20</v>
       </c>
-      <c r="C39" s="25">
+      <c r="C39" s="6">
         <v>1.6802488149305399</v>
       </c>
-      <c r="D39" s="21">
+      <c r="D39">
         <v>0.957914013959139</v>
       </c>
-      <c r="E39" s="21">
+      <c r="E39">
         <v>4032</v>
       </c>
-      <c r="F39" s="21">
+      <c r="F39">
         <v>-1.01012932720724</v>
       </c>
-      <c r="G39" s="21">
+      <c r="G39">
         <v>4.3706269570683203</v>
       </c>
-      <c r="H39" s="21">
+      <c r="H39">
         <v>0.29593475338981301</v>
       </c>
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A40" s="21" t="s">
-        <v>16</v>
-      </c>
-      <c r="B40" s="21" t="s">
+      <c r="A40" t="s">
+        <v>16</v>
+      </c>
+      <c r="B40" t="s">
         <v>21</v>
       </c>
-      <c r="C40" s="25">
+      <c r="C40" s="6">
         <v>4.9437404652264902</v>
       </c>
-      <c r="D40" s="21">
+      <c r="D40">
         <v>0.95232052237254206</v>
       </c>
-      <c r="E40" s="21">
+      <c r="E40">
         <v>4032</v>
       </c>
-      <c r="F40" s="21">
+      <c r="F40">
         <v>2.2690720916937299</v>
       </c>
-      <c r="G40" s="21">
+      <c r="G40">
         <v>7.6184088387592404</v>
       </c>
-      <c r="H40" s="24">
+      <c r="H40" s="11">
         <v>1.3365870114023801E-6</v>
       </c>
     </row>
@@ -1384,106 +1377,106 @@
       </c>
     </row>
     <row r="59" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A59" s="21" t="s">
-        <v>16</v>
-      </c>
-      <c r="B59" s="21" t="s">
+      <c r="A59" t="s">
+        <v>16</v>
+      </c>
+      <c r="B59" t="s">
         <v>18</v>
       </c>
-      <c r="C59" s="25">
+      <c r="C59" s="6">
         <v>2.84477481506402</v>
       </c>
-      <c r="D59" s="21">
+      <c r="D59">
         <v>0.91691312315274298</v>
       </c>
-      <c r="E59" s="21">
-        <v>4031</v>
-      </c>
-      <c r="F59" s="21">
+      <c r="E59">
+        <v>4031</v>
+      </c>
+      <c r="F59">
         <v>0.26955060296761202</v>
       </c>
-      <c r="G59" s="21">
+      <c r="G59">
         <v>5.4199990271604204</v>
       </c>
-      <c r="H59" s="21">
+      <c r="H59">
         <v>1.04185210064246E-2</v>
       </c>
     </row>
     <row r="60" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A60" s="21" t="s">
-        <v>16</v>
-      </c>
-      <c r="B60" s="22" t="s">
+      <c r="A60" t="s">
+        <v>16</v>
+      </c>
+      <c r="B60" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="C60" s="26">
+      <c r="C60" s="10">
         <v>6.2202857429030098</v>
       </c>
-      <c r="D60" s="21">
+      <c r="D60">
         <v>0.91449358285892302</v>
       </c>
-      <c r="E60" s="21">
-        <v>4031</v>
-      </c>
-      <c r="F60" s="21">
+      <c r="E60">
+        <v>4031</v>
+      </c>
+      <c r="F60">
         <v>3.6518570042156502</v>
       </c>
-      <c r="G60" s="21">
+      <c r="G60">
         <v>8.7887144815903593</v>
       </c>
-      <c r="H60" s="23">
+      <c r="H60" s="20">
         <v>2.7011323844305901E-8</v>
       </c>
     </row>
     <row r="61" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A61" s="21" t="s">
-        <v>16</v>
-      </c>
-      <c r="B61" s="21" t="s">
+      <c r="A61" t="s">
+        <v>16</v>
+      </c>
+      <c r="B61" t="s">
         <v>20</v>
       </c>
-      <c r="C61" s="25">
+      <c r="C61" s="6">
         <v>1.8378762244296201</v>
       </c>
-      <c r="D61" s="21">
+      <c r="D61">
         <v>0.95720009525161798</v>
       </c>
-      <c r="E61" s="21">
-        <v>4031</v>
-      </c>
-      <c r="F61" s="21">
+      <c r="E61">
+        <v>4031</v>
+      </c>
+      <c r="F61">
         <v>-0.85049718725981205</v>
       </c>
-      <c r="G61" s="21">
+      <c r="G61">
         <v>4.5262496361190498</v>
       </c>
-      <c r="H61" s="21">
+      <c r="H61">
         <v>0.21969121290388199</v>
       </c>
     </row>
     <row r="62" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A62" s="21" t="s">
-        <v>16</v>
-      </c>
-      <c r="B62" s="21" t="s">
+      <c r="A62" t="s">
+        <v>16</v>
+      </c>
+      <c r="B62" t="s">
         <v>21</v>
       </c>
-      <c r="C62" s="25">
+      <c r="C62" s="6">
         <v>5.2133871522686102</v>
       </c>
-      <c r="D62" s="21">
+      <c r="D62">
         <v>0.95334751656148198</v>
       </c>
-      <c r="E62" s="21">
-        <v>4031</v>
-      </c>
-      <c r="F62" s="21">
+      <c r="E62">
+        <v>4031</v>
+      </c>
+      <c r="F62">
         <v>2.5358340175185399</v>
       </c>
-      <c r="G62" s="21">
+      <c r="G62">
         <v>7.8909402870186804</v>
       </c>
-      <c r="H62" s="24">
+      <c r="H62" s="11">
         <v>3.1503900443929901E-7</v>
       </c>
     </row>
@@ -1738,7 +1731,7 @@
       <c r="G81" s="1">
         <v>4.8685816892079803</v>
       </c>
-      <c r="H81" s="27">
+      <c r="H81" s="1">
         <v>0.112530240471559</v>
       </c>
     </row>
@@ -1764,7 +1757,7 @@
       <c r="G82" s="1">
         <v>8.0984861244628004</v>
       </c>
-      <c r="H82" s="28">
+      <c r="H82" s="21">
         <v>7.1506731924575504E-7</v>
       </c>
     </row>
@@ -1790,7 +1783,7 @@
       <c r="G83" s="1">
         <v>4.2148973168083597</v>
       </c>
-      <c r="H83" s="27">
+      <c r="H83" s="1">
         <v>0.41862614999216802</v>
       </c>
     </row>
@@ -1816,7 +1809,7 @@
       <c r="G84" s="1">
         <v>7.4003966022832302</v>
       </c>
-      <c r="H84" s="28">
+      <c r="H84" s="21">
         <v>1.7858696354289299E-5</v>
       </c>
     </row>

--- a/eg_data/NHANES/PF/30_Waist.xlsx
+++ b/eg_data/NHANES/PF/30_Waist.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sadoh\OneDrive\Documents\GitHub\DietR\eg_data\NHANES\PF\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D48F7785-4391-473B-AF33-FB61950BB413}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{89706C60-B1C6-4089-BB1E-BB247E4A6078}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="23655" yWindow="-2130" windowWidth="17730" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="34455" yWindow="-3375" windowWidth="14790" windowHeight="15390" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Waist" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="188" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="326" uniqueCount="59">
   <si>
     <t>Plain means</t>
   </si>
@@ -144,6 +144,75 @@
   </si>
   <si>
     <t>DivGroup has an effect.</t>
+  </si>
+  <si>
+    <t>DivGroup, Age, Gender, KCAL, FIBE, PF</t>
+  </si>
+  <si>
+    <t>lm.agkfp &lt;-    lm( BMXWAIST ~ DivGroup + RIDAGEYR + Gender + KCAL + FIBE + PF_TOTAL_LEG, data=df)</t>
+  </si>
+  <si>
+    <t>Sum Sq</t>
+  </si>
+  <si>
+    <t>Df</t>
+  </si>
+  <si>
+    <t>F value</t>
+  </si>
+  <si>
+    <t>Pr(&gt;F)</t>
+  </si>
+  <si>
+    <t>NA</t>
+  </si>
+  <si>
+    <t>(Intercept)</t>
+  </si>
+  <si>
+    <t>RIDAGEYR</t>
+  </si>
+  <si>
+    <t>Gender</t>
+  </si>
+  <si>
+    <t>KCAL</t>
+  </si>
+  <si>
+    <t>FIBE</t>
+  </si>
+  <si>
+    <t>PF_TOTAL_LEG</t>
+  </si>
+  <si>
+    <t>Residuals</t>
+  </si>
+  <si>
+    <t>FIBE1000kcal</t>
+  </si>
+  <si>
+    <t>DivGroup, Age, Gender, KCAL, FIBE/1000kcal, PF</t>
+  </si>
+  <si>
+    <t>KCAL is not significant.</t>
+  </si>
+  <si>
+    <t>The more diverse, the less waist.</t>
+  </si>
+  <si>
+    <t>DivGroup, Age, Gender, FIBE/1000kcal, PF</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  lm.agkf1000p &lt;-    lm( BMXWAIST ~ DivGroup + RIDAGEYR + Gender + KCAL + FIBE1000kcal + PF_TOTAL_LEG, data=df)</t>
+  </si>
+  <si>
+    <t>lm.agf1000p &lt;-    lm( BMXWAIST ~ DivGroup + RIDAGEYR + Gender  + FIBE1000kcal + PF_TOTAL_LEG, data=df)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The difference between DivNA and Div2 and Div0 and Div2 became slightly smaller, but </t>
+  </si>
+  <si>
+    <t xml:space="preserve">still the trend is the same. </t>
   </si>
 </sst>
 </file>
@@ -176,7 +245,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -186,6 +255,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="2" tint="-9.9978637043366805E-2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -231,7 +306,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" quotePrefix="1" applyFill="1"/>
@@ -254,6 +329,14 @@
     <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="11" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="11" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="11" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -534,10 +617,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H113"/>
+  <dimension ref="A1:H199"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A88" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="L14" sqref="L14"/>
+    <sheetView tabSelected="1" topLeftCell="A111" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A175" sqref="A175:XFD175"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2245,12 +2328,1336 @@
         <v>98.333033636847105</v>
       </c>
     </row>
-    <row r="113" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A113" s="7" t="s">
         <v>7</v>
       </c>
       <c r="B113" s="8">
         <v>94.905599673008098</v>
+      </c>
+    </row>
+    <row r="115" spans="1:6" s="22" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A115" s="22" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="116" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A116" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="117" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A117" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="119" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C119" t="s">
+        <v>38</v>
+      </c>
+      <c r="D119" t="s">
+        <v>39</v>
+      </c>
+      <c r="E119" t="s">
+        <v>40</v>
+      </c>
+      <c r="F119" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="120" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B120" t="s">
+        <v>43</v>
+      </c>
+      <c r="C120">
+        <v>1648139.0184436101</v>
+      </c>
+      <c r="D120">
+        <v>1</v>
+      </c>
+      <c r="E120">
+        <v>6130.8388711238704</v>
+      </c>
+      <c r="F120">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="121" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B121" t="s">
+        <v>2</v>
+      </c>
+      <c r="C121">
+        <v>7341.8996620322596</v>
+      </c>
+      <c r="D121">
+        <v>3</v>
+      </c>
+      <c r="E121" s="11">
+        <v>9.1036017658237007</v>
+      </c>
+      <c r="F121" s="11">
+        <v>5.2889101069777101E-6</v>
+      </c>
+    </row>
+    <row r="122" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B122" t="s">
+        <v>44</v>
+      </c>
+      <c r="C122">
+        <v>65892.958365190803</v>
+      </c>
+      <c r="D122">
+        <v>1</v>
+      </c>
+      <c r="E122" s="11">
+        <v>245.11227873249899</v>
+      </c>
+      <c r="F122" s="11">
+        <v>1.1196377584560299E-53</v>
+      </c>
+    </row>
+    <row r="123" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B123" t="s">
+        <v>45</v>
+      </c>
+      <c r="C123">
+        <v>1725.96729563689</v>
+      </c>
+      <c r="D123">
+        <v>1</v>
+      </c>
+      <c r="E123">
+        <v>6.4203488103641604</v>
+      </c>
+      <c r="F123">
+        <v>1.1319584536018199E-2</v>
+      </c>
+    </row>
+    <row r="124" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B124" t="s">
+        <v>46</v>
+      </c>
+      <c r="C124">
+        <v>3641.614890625</v>
+      </c>
+      <c r="D124">
+        <v>1</v>
+      </c>
+      <c r="E124">
+        <v>13.546280911540199</v>
+      </c>
+      <c r="F124">
+        <v>2.35797891043344E-4</v>
+      </c>
+    </row>
+    <row r="125" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B125" t="s">
+        <v>47</v>
+      </c>
+      <c r="C125">
+        <v>3613.8332252518699</v>
+      </c>
+      <c r="D125">
+        <v>1</v>
+      </c>
+      <c r="E125">
+        <v>13.442937132849099</v>
+      </c>
+      <c r="F125">
+        <v>2.4910232783303401E-4</v>
+      </c>
+    </row>
+    <row r="126" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B126" t="s">
+        <v>48</v>
+      </c>
+      <c r="C126">
+        <v>1677.1633287544801</v>
+      </c>
+      <c r="D126">
+        <v>1</v>
+      </c>
+      <c r="E126">
+        <v>6.2388051093296104</v>
+      </c>
+      <c r="F126">
+        <v>1.25376521627657E-2</v>
+      </c>
+    </row>
+    <row r="127" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B127" t="s">
+        <v>49</v>
+      </c>
+      <c r="C127">
+        <v>1083106.6098613699</v>
+      </c>
+      <c r="D127">
+        <v>4029</v>
+      </c>
+      <c r="E127" t="s">
+        <v>42</v>
+      </c>
+      <c r="F127" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="130" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A130" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B130" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C130" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="D130" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="E130" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="F130" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="G130" s="3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="131" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A131" t="s">
+        <v>4</v>
+      </c>
+      <c r="B131" t="s">
+        <v>16</v>
+      </c>
+      <c r="C131" s="6">
+        <v>101.194338503786</v>
+      </c>
+      <c r="D131" s="6">
+        <v>0.38951706199099401</v>
+      </c>
+      <c r="E131">
+        <v>4029</v>
+      </c>
+      <c r="F131">
+        <v>100.100348224798</v>
+      </c>
+      <c r="G131">
+        <v>102.288328782774</v>
+      </c>
+    </row>
+    <row r="132" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A132" t="s">
+        <v>5</v>
+      </c>
+      <c r="B132" t="s">
+        <v>16</v>
+      </c>
+      <c r="C132" s="6">
+        <v>100.47572262513999</v>
+      </c>
+      <c r="D132" s="6">
+        <v>0.46760055671911599</v>
+      </c>
+      <c r="E132">
+        <v>4029</v>
+      </c>
+      <c r="F132">
+        <v>99.162428514516293</v>
+      </c>
+      <c r="G132">
+        <v>101.78901673576399</v>
+      </c>
+    </row>
+    <row r="133" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A133" t="s">
+        <v>6</v>
+      </c>
+      <c r="B133" t="s">
+        <v>16</v>
+      </c>
+      <c r="C133" s="6">
+        <v>99.039192314864096</v>
+      </c>
+      <c r="D133" s="6">
+        <v>0.86467419228190501</v>
+      </c>
+      <c r="E133">
+        <v>4029</v>
+      </c>
+      <c r="F133">
+        <v>96.610684675138998</v>
+      </c>
+      <c r="G133">
+        <v>101.46769995458899</v>
+      </c>
+    </row>
+    <row r="134" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A134" t="s">
+        <v>7</v>
+      </c>
+      <c r="B134" t="s">
+        <v>16</v>
+      </c>
+      <c r="C134" s="6">
+        <v>95.971485620922095</v>
+      </c>
+      <c r="D134" s="6">
+        <v>0.89472002672499895</v>
+      </c>
+      <c r="E134">
+        <v>4029</v>
+      </c>
+      <c r="F134">
+        <v>93.458591816860903</v>
+      </c>
+      <c r="G134">
+        <v>98.484379424983203</v>
+      </c>
+      <c r="H134" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="135" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A135" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B135" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="C135" s="5">
+        <v>0.71861587864586496</v>
+      </c>
+      <c r="D135" s="5">
+        <v>0.61859403514306899</v>
+      </c>
+      <c r="E135" s="4">
+        <v>4029</v>
+      </c>
+      <c r="F135" s="4">
+        <v>-1.01875566966973</v>
+      </c>
+      <c r="G135" s="4">
+        <v>2.4559874269614599</v>
+      </c>
+      <c r="H135" s="4">
+        <v>0.65111213860113104</v>
+      </c>
+    </row>
+    <row r="136" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A136" s="23" t="s">
+        <v>16</v>
+      </c>
+      <c r="B136" s="23" t="s">
+        <v>18</v>
+      </c>
+      <c r="C136" s="25">
+        <v>2.1551461889216998</v>
+      </c>
+      <c r="D136" s="25">
+        <v>0.98003225359332302</v>
+      </c>
+      <c r="E136" s="23">
+        <v>4029</v>
+      </c>
+      <c r="F136" s="23">
+        <v>-0.59735392762218298</v>
+      </c>
+      <c r="G136" s="23">
+        <v>4.9076463054655797</v>
+      </c>
+      <c r="H136" s="23">
+        <v>0.12362284056976799</v>
+      </c>
+    </row>
+    <row r="137" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A137" s="23" t="s">
+        <v>16</v>
+      </c>
+      <c r="B137" s="26" t="s">
+        <v>19</v>
+      </c>
+      <c r="C137" s="27">
+        <v>5.2228528828637799</v>
+      </c>
+      <c r="D137" s="25">
+        <v>1.0213295348693301</v>
+      </c>
+      <c r="E137" s="23">
+        <v>4029</v>
+      </c>
+      <c r="F137" s="23">
+        <v>2.3543660004676799</v>
+      </c>
+      <c r="G137" s="23">
+        <v>8.09133976525988</v>
+      </c>
+      <c r="H137" s="24">
+        <v>2.0000752842808099E-6</v>
+      </c>
+    </row>
+    <row r="138" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A138" s="23" t="s">
+        <v>16</v>
+      </c>
+      <c r="B138" s="23" t="s">
+        <v>20</v>
+      </c>
+      <c r="C138" s="25">
+        <v>1.43653031027584</v>
+      </c>
+      <c r="D138" s="25">
+        <v>0.97172899743156005</v>
+      </c>
+      <c r="E138" s="23">
+        <v>4029</v>
+      </c>
+      <c r="F138" s="23">
+        <v>-1.29264943750554</v>
+      </c>
+      <c r="G138" s="23">
+        <v>4.1657100580572104</v>
+      </c>
+      <c r="H138" s="23">
+        <v>0.450737194025153</v>
+      </c>
+    </row>
+    <row r="139" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A139" s="23" t="s">
+        <v>16</v>
+      </c>
+      <c r="B139" s="26" t="s">
+        <v>21</v>
+      </c>
+      <c r="C139" s="27">
+        <v>4.5042370042179103</v>
+      </c>
+      <c r="D139" s="25">
+        <v>0.99384117521565496</v>
+      </c>
+      <c r="E139" s="23">
+        <v>4029</v>
+      </c>
+      <c r="F139" s="23">
+        <v>1.71295341066554</v>
+      </c>
+      <c r="G139" s="23">
+        <v>7.2955205977702802</v>
+      </c>
+      <c r="H139" s="24">
+        <v>3.5600130270374598E-5</v>
+      </c>
+    </row>
+    <row r="140" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A140" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="B140" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="C140" s="8">
+        <v>3.0677066939420801</v>
+      </c>
+      <c r="D140" s="8">
+        <v>1.1796746330563901</v>
+      </c>
+      <c r="E140" s="7">
+        <v>4029</v>
+      </c>
+      <c r="F140" s="7">
+        <v>-0.24550524685491901</v>
+      </c>
+      <c r="G140" s="7">
+        <v>6.3809186347390696</v>
+      </c>
+      <c r="H140" s="7">
+        <v>4.61088519137383E-2</v>
+      </c>
+    </row>
+    <row r="142" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A142" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="144" spans="1:8" s="29" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A144" s="29" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="145" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A145" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="147" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A147" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="148" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C148" t="s">
+        <v>38</v>
+      </c>
+      <c r="D148" t="s">
+        <v>39</v>
+      </c>
+      <c r="E148" t="s">
+        <v>40</v>
+      </c>
+      <c r="F148" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="149" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B149" t="s">
+        <v>43</v>
+      </c>
+      <c r="C149">
+        <v>1269832.58484727</v>
+      </c>
+      <c r="D149">
+        <v>1</v>
+      </c>
+      <c r="E149">
+        <v>4721.3739273027504</v>
+      </c>
+      <c r="F149">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="150" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B150" t="s">
+        <v>2</v>
+      </c>
+      <c r="C150">
+        <v>7965.3113341715698</v>
+      </c>
+      <c r="D150">
+        <v>3</v>
+      </c>
+      <c r="E150">
+        <v>9.8719609983153997</v>
+      </c>
+      <c r="F150" s="11">
+        <v>1.7485773336846901E-6</v>
+      </c>
+    </row>
+    <row r="151" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B151" t="s">
+        <v>44</v>
+      </c>
+      <c r="C151">
+        <v>65878.830343513706</v>
+      </c>
+      <c r="D151">
+        <v>1</v>
+      </c>
+      <c r="E151">
+        <v>244.944566438637</v>
+      </c>
+      <c r="F151" s="11">
+        <v>1.2121235029963401E-53</v>
+      </c>
+    </row>
+    <row r="152" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B152" t="s">
+        <v>45</v>
+      </c>
+      <c r="C152">
+        <v>1664.0238375321501</v>
+      </c>
+      <c r="D152">
+        <v>1</v>
+      </c>
+      <c r="E152">
+        <v>6.18701933993884</v>
+      </c>
+      <c r="F152">
+        <v>1.2909230753858501E-2</v>
+      </c>
+    </row>
+    <row r="153" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B153" s="18" t="s">
+        <v>46</v>
+      </c>
+      <c r="C153" s="18">
+        <v>642.34855975257199</v>
+      </c>
+      <c r="D153" s="18">
+        <v>1</v>
+      </c>
+      <c r="E153" s="18">
+        <v>2.38832093178728</v>
+      </c>
+      <c r="F153" s="18">
+        <v>0.122323403277461</v>
+      </c>
+    </row>
+    <row r="154" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B154" t="s">
+        <v>50</v>
+      </c>
+      <c r="C154">
+        <v>3104.6221146958401</v>
+      </c>
+      <c r="D154">
+        <v>1</v>
+      </c>
+      <c r="E154">
+        <v>11.5433184510819</v>
+      </c>
+      <c r="F154">
+        <v>6.8652276616774303E-4</v>
+      </c>
+    </row>
+    <row r="155" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B155" t="s">
+        <v>48</v>
+      </c>
+      <c r="C155">
+        <v>1607.05348319584</v>
+      </c>
+      <c r="D155">
+        <v>1</v>
+      </c>
+      <c r="E155">
+        <v>5.9751974440429896</v>
+      </c>
+      <c r="F155">
+        <v>1.45510313437961E-2</v>
+      </c>
+    </row>
+    <row r="156" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B156" t="s">
+        <v>49</v>
+      </c>
+      <c r="C156">
+        <v>1083615.8209719299</v>
+      </c>
+      <c r="D156">
+        <v>4029</v>
+      </c>
+      <c r="E156" t="s">
+        <v>42</v>
+      </c>
+      <c r="F156" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="158" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A158" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B158" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C158" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="D158" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="E158" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="F158" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="G158" s="3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="159" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A159" t="s">
+        <v>4</v>
+      </c>
+      <c r="B159" t="s">
+        <v>16</v>
+      </c>
+      <c r="C159" s="6">
+        <v>101.232510197693</v>
+      </c>
+      <c r="D159" s="6">
+        <v>0.38896161062031298</v>
+      </c>
+      <c r="E159">
+        <v>4029</v>
+      </c>
+      <c r="F159">
+        <v>100.14007994895501</v>
+      </c>
+      <c r="G159">
+        <v>102.32494044643001</v>
+      </c>
+    </row>
+    <row r="160" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A160" t="s">
+        <v>5</v>
+      </c>
+      <c r="B160" t="s">
+        <v>16</v>
+      </c>
+      <c r="C160" s="6">
+        <v>100.474633616999</v>
+      </c>
+      <c r="D160" s="6">
+        <v>0.46785141338165298</v>
+      </c>
+      <c r="E160">
+        <v>4029</v>
+      </c>
+      <c r="F160">
+        <v>99.160634955080496</v>
+      </c>
+      <c r="G160">
+        <v>101.78863227891701</v>
+      </c>
+    </row>
+    <row r="161" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A161" t="s">
+        <v>6</v>
+      </c>
+      <c r="B161" t="s">
+        <v>16</v>
+      </c>
+      <c r="C161" s="6">
+        <v>98.975340362741704</v>
+      </c>
+      <c r="D161" s="6">
+        <v>0.86408530912331705</v>
+      </c>
+      <c r="E161">
+        <v>4029</v>
+      </c>
+      <c r="F161">
+        <v>96.548486649156999</v>
+      </c>
+      <c r="G161">
+        <v>101.402194076326</v>
+      </c>
+    </row>
+    <row r="162" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A162" t="s">
+        <v>7</v>
+      </c>
+      <c r="B162" t="s">
+        <v>16</v>
+      </c>
+      <c r="C162" s="6">
+        <v>95.8356234125404</v>
+      </c>
+      <c r="D162" s="6">
+        <v>0.88957923079615797</v>
+      </c>
+      <c r="E162">
+        <v>4029</v>
+      </c>
+      <c r="F162">
+        <v>93.337167951035298</v>
+      </c>
+      <c r="G162">
+        <v>98.334078874045602</v>
+      </c>
+      <c r="H162" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="163" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A163" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B163" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="C163" s="5">
+        <v>0.75787658069405806</v>
+      </c>
+      <c r="D163" s="5">
+        <v>0.61870676944833902</v>
+      </c>
+      <c r="E163" s="4">
+        <v>4029</v>
+      </c>
+      <c r="F163" s="4">
+        <v>-0.979811591066582</v>
+      </c>
+      <c r="G163" s="4">
+        <v>2.4955647524547002</v>
+      </c>
+      <c r="H163" s="4">
+        <v>0.61097925553195997</v>
+      </c>
+    </row>
+    <row r="164" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A164" s="23" t="s">
+        <v>16</v>
+      </c>
+      <c r="B164" s="23" t="s">
+        <v>18</v>
+      </c>
+      <c r="C164" s="25">
+        <v>2.2571698349509699</v>
+      </c>
+      <c r="D164" s="25">
+        <v>0.97845787384566696</v>
+      </c>
+      <c r="E164" s="23">
+        <v>4029</v>
+      </c>
+      <c r="F164" s="23">
+        <v>-0.49090850830634702</v>
+      </c>
+      <c r="G164" s="23">
+        <v>5.0052481782082898</v>
+      </c>
+      <c r="H164" s="23">
+        <v>9.6597052715799103E-2</v>
+      </c>
+    </row>
+    <row r="165" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A165" s="23" t="s">
+        <v>16</v>
+      </c>
+      <c r="B165" s="26" t="s">
+        <v>19</v>
+      </c>
+      <c r="C165" s="27">
+        <v>5.3968867851522599</v>
+      </c>
+      <c r="D165" s="27">
+        <v>1.0141670475670601</v>
+      </c>
+      <c r="E165" s="23">
+        <v>4029</v>
+      </c>
+      <c r="F165" s="23">
+        <v>2.5485163296002402</v>
+      </c>
+      <c r="G165" s="23">
+        <v>8.2452572407042801</v>
+      </c>
+      <c r="H165" s="28">
+        <v>6.7580728035920899E-7</v>
+      </c>
+    </row>
+    <row r="166" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A166" s="23" t="s">
+        <v>16</v>
+      </c>
+      <c r="B166" s="23" t="s">
+        <v>20</v>
+      </c>
+      <c r="C166" s="25">
+        <v>1.4992932542569199</v>
+      </c>
+      <c r="D166" s="25">
+        <v>0.97102647345812498</v>
+      </c>
+      <c r="E166" s="23">
+        <v>4029</v>
+      </c>
+      <c r="F166" s="23">
+        <v>-1.2279133979333099</v>
+      </c>
+      <c r="G166" s="23">
+        <v>4.22649990644714</v>
+      </c>
+      <c r="H166" s="23">
+        <v>0.411206108556673</v>
+      </c>
+    </row>
+    <row r="167" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A167" s="23" t="s">
+        <v>16</v>
+      </c>
+      <c r="B167" s="26" t="s">
+        <v>21</v>
+      </c>
+      <c r="C167" s="27">
+        <v>4.6390102044581996</v>
+      </c>
+      <c r="D167" s="27">
+        <v>0.98924107585250298</v>
+      </c>
+      <c r="E167" s="23">
+        <v>4029</v>
+      </c>
+      <c r="F167" s="23">
+        <v>1.8606463632780199</v>
+      </c>
+      <c r="G167" s="23">
+        <v>7.4173740456383799</v>
+      </c>
+      <c r="H167" s="28">
+        <v>1.6834560508494099E-5</v>
+      </c>
+    </row>
+    <row r="168" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A168" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="B168" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="C168" s="8">
+        <v>3.1397169502012798</v>
+      </c>
+      <c r="D168" s="8">
+        <v>1.1788720528269201</v>
+      </c>
+      <c r="E168" s="7">
+        <v>4029</v>
+      </c>
+      <c r="F168" s="7">
+        <v>-0.171240878889621</v>
+      </c>
+      <c r="G168" s="7">
+        <v>6.4506747792921901</v>
+      </c>
+      <c r="H168" s="7">
+        <v>3.8861780561662701E-2</v>
+      </c>
+    </row>
+    <row r="170" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A170" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="172" spans="1:8" s="29" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A172" s="29" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="173" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A173" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="175" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="C175" t="s">
+        <v>38</v>
+      </c>
+      <c r="D175" t="s">
+        <v>39</v>
+      </c>
+      <c r="E175" t="s">
+        <v>40</v>
+      </c>
+      <c r="F175" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="176" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B176" t="s">
+        <v>43</v>
+      </c>
+      <c r="C176">
+        <v>1995316.38845618</v>
+      </c>
+      <c r="D176">
+        <v>1</v>
+      </c>
+      <c r="E176">
+        <v>7416.2457534920304</v>
+      </c>
+      <c r="F176">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="177" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B177" t="s">
+        <v>2</v>
+      </c>
+      <c r="C177">
+        <v>7657.4168515859601</v>
+      </c>
+      <c r="D177">
+        <v>3</v>
+      </c>
+      <c r="E177">
+        <v>9.4870978084553297</v>
+      </c>
+      <c r="F177" s="11">
+        <v>3.0448737316294602E-6</v>
+      </c>
+    </row>
+    <row r="178" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B178" t="s">
+        <v>44</v>
+      </c>
+      <c r="C178">
+        <v>65263.020918036797</v>
+      </c>
+      <c r="D178">
+        <v>1</v>
+      </c>
+      <c r="E178">
+        <v>242.57135587300999</v>
+      </c>
+      <c r="F178" s="11">
+        <v>3.7247148877240001E-53</v>
+      </c>
+    </row>
+    <row r="179" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B179" t="s">
+        <v>45</v>
+      </c>
+      <c r="C179">
+        <v>2411.4312239072801</v>
+      </c>
+      <c r="D179">
+        <v>1</v>
+      </c>
+      <c r="E179">
+        <v>8.9628725938433895</v>
+      </c>
+      <c r="F179">
+        <v>2.7719480884888701E-3</v>
+      </c>
+    </row>
+    <row r="180" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B180" t="s">
+        <v>50</v>
+      </c>
+      <c r="C180">
+        <v>3775.4039348363899</v>
+      </c>
+      <c r="D180">
+        <v>1</v>
+      </c>
+      <c r="E180">
+        <v>14.032523143415499</v>
+      </c>
+      <c r="F180">
+        <v>1.8218832461452199E-4</v>
+      </c>
+    </row>
+    <row r="181" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B181" t="s">
+        <v>48</v>
+      </c>
+      <c r="C181">
+        <v>3323.4590460683698</v>
+      </c>
+      <c r="D181">
+        <v>1</v>
+      </c>
+      <c r="E181">
+        <v>12.3527221947892</v>
+      </c>
+      <c r="F181">
+        <v>4.4518771631913399E-4</v>
+      </c>
+    </row>
+    <row r="182" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B182" t="s">
+        <v>49</v>
+      </c>
+      <c r="C182">
+        <v>1084258.1695316799</v>
+      </c>
+      <c r="D182">
+        <v>4030</v>
+      </c>
+      <c r="E182" t="s">
+        <v>42</v>
+      </c>
+      <c r="F182" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="185" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A185" t="s">
+        <v>2</v>
+      </c>
+      <c r="B185" t="s">
+        <v>11</v>
+      </c>
+      <c r="C185" t="s">
+        <v>3</v>
+      </c>
+      <c r="D185" t="s">
+        <v>12</v>
+      </c>
+      <c r="E185" t="s">
+        <v>13</v>
+      </c>
+      <c r="F185" t="s">
+        <v>14</v>
+      </c>
+      <c r="G185" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="186" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A186" t="s">
+        <v>4</v>
+      </c>
+      <c r="B186" t="s">
+        <v>16</v>
+      </c>
+      <c r="C186" s="6">
+        <v>101.209878392053</v>
+      </c>
+      <c r="D186" s="6">
+        <v>0.38875277517771301</v>
+      </c>
+      <c r="E186">
+        <v>4030</v>
+      </c>
+      <c r="F186">
+        <v>100.11803482394799</v>
+      </c>
+      <c r="G186">
+        <v>102.30172196015801</v>
+      </c>
+    </row>
+    <row r="187" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A187" t="s">
+        <v>5</v>
+      </c>
+      <c r="B187" t="s">
+        <v>16</v>
+      </c>
+      <c r="C187" s="6">
+        <v>100.482176745179</v>
+      </c>
+      <c r="D187" s="6">
+        <v>0.46790652713579101</v>
+      </c>
+      <c r="E187">
+        <v>4030</v>
+      </c>
+      <c r="F187">
+        <v>99.168023471561597</v>
+      </c>
+      <c r="G187">
+        <v>101.796330018795</v>
+      </c>
+    </row>
+    <row r="188" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A188" t="s">
+        <v>6</v>
+      </c>
+      <c r="B188" t="s">
+        <v>16</v>
+      </c>
+      <c r="C188" s="6">
+        <v>99.029510455848794</v>
+      </c>
+      <c r="D188" s="6">
+        <v>0.86352276695918195</v>
+      </c>
+      <c r="E188">
+        <v>4030</v>
+      </c>
+      <c r="F188">
+        <v>96.604237019317196</v>
+      </c>
+      <c r="G188">
+        <v>101.45478389237999</v>
+      </c>
+    </row>
+    <row r="189" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A189" t="s">
+        <v>7</v>
+      </c>
+      <c r="B189" t="s">
+        <v>16</v>
+      </c>
+      <c r="C189" s="6">
+        <v>95.9339848387296</v>
+      </c>
+      <c r="D189" s="6">
+        <v>0.88745224064907202</v>
+      </c>
+      <c r="E189">
+        <v>4030</v>
+      </c>
+      <c r="F189">
+        <v>93.441503542589899</v>
+      </c>
+      <c r="G189">
+        <v>98.426466134869301</v>
+      </c>
+      <c r="H189" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="190" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A190" t="s">
+        <v>16</v>
+      </c>
+      <c r="B190" t="s">
+        <v>17</v>
+      </c>
+      <c r="C190" s="6">
+        <v>0.727701646874654</v>
+      </c>
+      <c r="D190" s="6">
+        <v>0.61850510628438005</v>
+      </c>
+      <c r="E190">
+        <v>4030</v>
+      </c>
+      <c r="F190">
+        <v>-1.0094198999177699</v>
+      </c>
+      <c r="G190">
+        <v>2.4648231936670699</v>
+      </c>
+      <c r="H190">
+        <v>0.64173544755235801</v>
+      </c>
+    </row>
+    <row r="191" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A191" t="s">
+        <v>16</v>
+      </c>
+      <c r="B191" t="s">
+        <v>18</v>
+      </c>
+      <c r="C191" s="6">
+        <v>2.1803679362044401</v>
+      </c>
+      <c r="D191" s="6">
+        <v>0.97736330712431396</v>
+      </c>
+      <c r="E191">
+        <v>4030</v>
+      </c>
+      <c r="F191">
+        <v>-0.56463585212211698</v>
+      </c>
+      <c r="G191">
+        <v>4.9253717245309998</v>
+      </c>
+      <c r="H191">
+        <v>0.115105756443977</v>
+      </c>
+    </row>
+    <row r="192" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A192" t="s">
+        <v>16</v>
+      </c>
+      <c r="B192" t="s">
+        <v>19</v>
+      </c>
+      <c r="C192" s="6">
+        <v>5.2758935533235602</v>
+      </c>
+      <c r="D192" s="6">
+        <v>1.0113147151211801</v>
+      </c>
+      <c r="E192">
+        <v>4030</v>
+      </c>
+      <c r="F192">
+        <v>2.43553449343006</v>
+      </c>
+      <c r="G192">
+        <v>8.1162526132170694</v>
+      </c>
+      <c r="H192" s="11">
+        <v>1.16909659808595E-6</v>
+      </c>
+    </row>
+    <row r="193" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A193" t="s">
+        <v>16</v>
+      </c>
+      <c r="B193" t="s">
+        <v>20</v>
+      </c>
+      <c r="C193" s="6">
+        <v>1.4526662893297899</v>
+      </c>
+      <c r="D193" s="6">
+        <v>0.97072479511805299</v>
+      </c>
+      <c r="E193">
+        <v>4030</v>
+      </c>
+      <c r="F193">
+        <v>-1.27369270184385</v>
+      </c>
+      <c r="G193">
+        <v>4.1790252805034296</v>
+      </c>
+      <c r="H193">
+        <v>0.43968456364564301</v>
+      </c>
+    </row>
+    <row r="194" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A194" t="s">
+        <v>16</v>
+      </c>
+      <c r="B194" t="s">
+        <v>21</v>
+      </c>
+      <c r="C194" s="6">
+        <v>4.5481919064489098</v>
+      </c>
+      <c r="D194" s="6">
+        <v>0.98766410442744501</v>
+      </c>
+      <c r="E194">
+        <v>4030</v>
+      </c>
+      <c r="F194">
+        <v>1.77425749691551</v>
+      </c>
+      <c r="G194">
+        <v>7.3221263159823096</v>
+      </c>
+      <c r="H194" s="11">
+        <v>2.5240764506273499E-5</v>
+      </c>
+    </row>
+    <row r="195" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A195" t="s">
+        <v>16</v>
+      </c>
+      <c r="B195" t="s">
+        <v>22</v>
+      </c>
+      <c r="C195" s="6">
+        <v>3.0955256171191201</v>
+      </c>
+      <c r="D195" s="6">
+        <v>1.17872817862512</v>
+      </c>
+      <c r="E195">
+        <v>4030</v>
+      </c>
+      <c r="F195">
+        <v>-0.215027676776606</v>
+      </c>
+      <c r="G195">
+        <v>6.4060789110148502</v>
+      </c>
+      <c r="H195">
+        <v>4.3019465129833297E-2</v>
+      </c>
+    </row>
+    <row r="196" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="C196" s="6"/>
+      <c r="D196" s="6"/>
+    </row>
+    <row r="197" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B197" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="198" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B198" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="199" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B199" t="s">
+        <v>53</v>
       </c>
     </row>
   </sheetData>

--- a/eg_data/NHANES/PF/30_Waist.xlsx
+++ b/eg_data/NHANES/PF/30_Waist.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sadoh\OneDrive\Documents\GitHub\DietR\eg_data\NHANES\PF\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{89706C60-B1C6-4089-BB1E-BB247E4A6078}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{47CD5B55-255A-4C07-86CB-17EA5FA5E1E4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="34455" yWindow="-3375" windowWidth="14790" windowHeight="15390" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="36450" yWindow="-3315" windowWidth="12765" windowHeight="15540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Waist" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="326" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="342" uniqueCount="60">
   <si>
     <t>Plain means</t>
   </si>
@@ -213,6 +213,9 @@
   </si>
   <si>
     <t xml:space="preserve">still the trend is the same. </t>
+  </si>
+  <si>
+    <t>p-value</t>
   </si>
 </sst>
 </file>
@@ -306,7 +309,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" quotePrefix="1" applyFill="1"/>
@@ -331,12 +334,19 @@
     <xf numFmtId="11" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="11" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -619,13 +629,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H199"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A111" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A175" sqref="A175:XFD175"/>
+    <sheetView tabSelected="1" topLeftCell="A80" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="I96" sqref="I96"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="12.85546875" customWidth="1"/>
+    <col min="2" max="2" width="14.5703125" customWidth="1"/>
+    <col min="3" max="3" width="10" customWidth="1"/>
     <col min="9" max="9" width="11.85546875" customWidth="1"/>
   </cols>
   <sheetData>
@@ -2041,6 +2052,9 @@
       <c r="G97" s="3" t="s">
         <v>15</v>
       </c>
+      <c r="H97" s="3" t="s">
+        <v>59</v>
+      </c>
     </row>
     <row r="98" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
@@ -2064,6 +2078,9 @@
       <c r="G98">
         <v>102.674232246413</v>
       </c>
+      <c r="H98" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="99" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
@@ -2087,6 +2104,9 @@
       <c r="G99">
         <v>101.674405446468</v>
       </c>
+      <c r="H99" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="100" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
@@ -2110,6 +2130,9 @@
       <c r="G100">
         <v>100.705249074333</v>
       </c>
+      <c r="H100" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="101" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
@@ -2133,8 +2156,8 @@
       <c r="G101">
         <v>97.279652697340296</v>
       </c>
-      <c r="H101" s="3" t="s">
-        <v>23</v>
+      <c r="H101" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="102" spans="1:8" x14ac:dyDescent="0.25">
@@ -2352,16 +2375,17 @@
       </c>
     </row>
     <row r="119" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="C119" t="s">
+      <c r="B119" s="3"/>
+      <c r="C119" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="D119" t="s">
+      <c r="D119" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="E119" t="s">
+      <c r="E119" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="F119" t="s">
+      <c r="F119" s="3" t="s">
         <v>41</v>
       </c>
     </row>
@@ -2485,19 +2509,19 @@
       </c>
     </row>
     <row r="127" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B127" t="s">
+      <c r="B127" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="C127">
+      <c r="C127" s="3">
         <v>1083106.6098613699</v>
       </c>
-      <c r="D127">
+      <c r="D127" s="3">
         <v>4029</v>
       </c>
-      <c r="E127" t="s">
+      <c r="E127" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="F127" t="s">
+      <c r="F127" s="3" t="s">
         <v>42</v>
       </c>
     </row>
@@ -2523,6 +2547,9 @@
       <c r="G130" s="3" t="s">
         <v>15</v>
       </c>
+      <c r="H130" s="3" t="s">
+        <v>59</v>
+      </c>
     </row>
     <row r="131" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
@@ -2546,6 +2573,9 @@
       <c r="G131">
         <v>102.288328782774</v>
       </c>
+      <c r="H131" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="132" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
@@ -2569,6 +2599,9 @@
       <c r="G132">
         <v>101.78901673576399</v>
       </c>
+      <c r="H132" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="133" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
@@ -2592,6 +2625,9 @@
       <c r="G133">
         <v>101.46769995458899</v>
       </c>
+      <c r="H133" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="134" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
@@ -2616,7 +2652,7 @@
         <v>98.484379424983203</v>
       </c>
       <c r="H134" t="s">
-        <v>23</v>
+        <v>16</v>
       </c>
     </row>
     <row r="135" spans="1:8" x14ac:dyDescent="0.25">
@@ -2646,106 +2682,106 @@
       </c>
     </row>
     <row r="136" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A136" s="23" t="s">
-        <v>16</v>
-      </c>
-      <c r="B136" s="23" t="s">
+      <c r="A136" t="s">
+        <v>16</v>
+      </c>
+      <c r="B136" t="s">
         <v>18</v>
       </c>
-      <c r="C136" s="25">
+      <c r="C136" s="6">
         <v>2.1551461889216998</v>
       </c>
-      <c r="D136" s="25">
+      <c r="D136" s="6">
         <v>0.98003225359332302</v>
       </c>
-      <c r="E136" s="23">
+      <c r="E136">
         <v>4029</v>
       </c>
-      <c r="F136" s="23">
+      <c r="F136">
         <v>-0.59735392762218298</v>
       </c>
-      <c r="G136" s="23">
+      <c r="G136">
         <v>4.9076463054655797</v>
       </c>
-      <c r="H136" s="23">
+      <c r="H136">
         <v>0.12362284056976799</v>
       </c>
     </row>
     <row r="137" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A137" s="23" t="s">
-        <v>16</v>
-      </c>
-      <c r="B137" s="26" t="s">
+      <c r="A137" t="s">
+        <v>16</v>
+      </c>
+      <c r="B137" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="C137" s="27">
+      <c r="C137" s="10">
         <v>5.2228528828637799</v>
       </c>
-      <c r="D137" s="25">
+      <c r="D137" s="6">
         <v>1.0213295348693301</v>
       </c>
-      <c r="E137" s="23">
+      <c r="E137">
         <v>4029</v>
       </c>
-      <c r="F137" s="23">
+      <c r="F137">
         <v>2.3543660004676799</v>
       </c>
-      <c r="G137" s="23">
+      <c r="G137">
         <v>8.09133976525988</v>
       </c>
-      <c r="H137" s="24">
+      <c r="H137" s="11">
         <v>2.0000752842808099E-6</v>
       </c>
     </row>
     <row r="138" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A138" s="23" t="s">
-        <v>16</v>
-      </c>
-      <c r="B138" s="23" t="s">
+      <c r="A138" t="s">
+        <v>16</v>
+      </c>
+      <c r="B138" t="s">
         <v>20</v>
       </c>
-      <c r="C138" s="25">
+      <c r="C138" s="6">
         <v>1.43653031027584</v>
       </c>
-      <c r="D138" s="25">
+      <c r="D138" s="6">
         <v>0.97172899743156005</v>
       </c>
-      <c r="E138" s="23">
+      <c r="E138">
         <v>4029</v>
       </c>
-      <c r="F138" s="23">
+      <c r="F138">
         <v>-1.29264943750554</v>
       </c>
-      <c r="G138" s="23">
+      <c r="G138">
         <v>4.1657100580572104</v>
       </c>
-      <c r="H138" s="23">
+      <c r="H138">
         <v>0.450737194025153</v>
       </c>
     </row>
     <row r="139" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A139" s="23" t="s">
-        <v>16</v>
-      </c>
-      <c r="B139" s="26" t="s">
+      <c r="A139" t="s">
+        <v>16</v>
+      </c>
+      <c r="B139" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="C139" s="27">
+      <c r="C139" s="10">
         <v>4.5042370042179103</v>
       </c>
-      <c r="D139" s="25">
+      <c r="D139" s="6">
         <v>0.99384117521565496</v>
       </c>
-      <c r="E139" s="23">
+      <c r="E139">
         <v>4029</v>
       </c>
-      <c r="F139" s="23">
+      <c r="F139">
         <v>1.71295341066554</v>
       </c>
-      <c r="G139" s="23">
+      <c r="G139">
         <v>7.2955205977702802</v>
       </c>
-      <c r="H139" s="24">
+      <c r="H139" s="11">
         <v>3.5600130270374598E-5</v>
       </c>
     </row>
@@ -2780,36 +2816,37 @@
         <v>53</v>
       </c>
     </row>
-    <row r="144" spans="1:8" s="29" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A144" s="29" t="s">
+    <row r="144" spans="1:8" s="22" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A144" s="22" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="145" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A145" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="147" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A147" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="148" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="C148" t="s">
+    <row r="148" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B148" s="3"/>
+      <c r="C148" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="D148" t="s">
+      <c r="D148" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="E148" t="s">
+      <c r="E148" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="F148" t="s">
+      <c r="F148" s="3" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="149" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B149" t="s">
         <v>43</v>
       </c>
@@ -2826,7 +2863,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="150" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B150" t="s">
         <v>2</v>
       </c>
@@ -2843,7 +2880,7 @@
         <v>1.7485773336846901E-6</v>
       </c>
     </row>
-    <row r="151" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B151" t="s">
         <v>44</v>
       </c>
@@ -2860,7 +2897,7 @@
         <v>1.2121235029963401E-53</v>
       </c>
     </row>
-    <row r="152" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B152" t="s">
         <v>45</v>
       </c>
@@ -2877,7 +2914,7 @@
         <v>1.2909230753858501E-2</v>
       </c>
     </row>
-    <row r="153" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B153" s="18" t="s">
         <v>46</v>
       </c>
@@ -2894,7 +2931,7 @@
         <v>0.122323403277461</v>
       </c>
     </row>
-    <row r="154" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B154" t="s">
         <v>50</v>
       </c>
@@ -2911,7 +2948,7 @@
         <v>6.8652276616774303E-4</v>
       </c>
     </row>
-    <row r="155" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B155" t="s">
         <v>48</v>
       </c>
@@ -2928,24 +2965,24 @@
         <v>1.45510313437961E-2</v>
       </c>
     </row>
-    <row r="156" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B156" t="s">
+    <row r="156" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B156" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="C156">
+      <c r="C156" s="3">
         <v>1083615.8209719299</v>
       </c>
-      <c r="D156">
+      <c r="D156" s="3">
         <v>4029</v>
       </c>
-      <c r="E156" t="s">
+      <c r="E156" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="F156" t="s">
+      <c r="F156" s="3" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="158" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A158" s="3" t="s">
         <v>2</v>
       </c>
@@ -2967,8 +3004,11 @@
       <c r="G158" s="3" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="159" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H158" s="3" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="159" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A159" t="s">
         <v>4</v>
       </c>
@@ -2990,8 +3030,11 @@
       <c r="G159">
         <v>102.32494044643001</v>
       </c>
-    </row>
-    <row r="160" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H159" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="160" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A160" t="s">
         <v>5</v>
       </c>
@@ -3012,6 +3055,9 @@
       </c>
       <c r="G160">
         <v>101.78863227891701</v>
+      </c>
+      <c r="H160" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="161" spans="1:8" x14ac:dyDescent="0.25">
@@ -3036,6 +3082,9 @@
       <c r="G161">
         <v>101.402194076326</v>
       </c>
+      <c r="H161" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="162" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A162" t="s">
@@ -3060,7 +3109,7 @@
         <v>98.334078874045602</v>
       </c>
       <c r="H162" t="s">
-        <v>23</v>
+        <v>16</v>
       </c>
     </row>
     <row r="163" spans="1:8" x14ac:dyDescent="0.25">
@@ -3090,106 +3139,106 @@
       </c>
     </row>
     <row r="164" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A164" s="23" t="s">
-        <v>16</v>
-      </c>
-      <c r="B164" s="23" t="s">
+      <c r="A164" t="s">
+        <v>16</v>
+      </c>
+      <c r="B164" t="s">
         <v>18</v>
       </c>
-      <c r="C164" s="25">
+      <c r="C164" s="6">
         <v>2.2571698349509699</v>
       </c>
-      <c r="D164" s="25">
+      <c r="D164" s="6">
         <v>0.97845787384566696</v>
       </c>
-      <c r="E164" s="23">
+      <c r="E164">
         <v>4029</v>
       </c>
-      <c r="F164" s="23">
+      <c r="F164">
         <v>-0.49090850830634702</v>
       </c>
-      <c r="G164" s="23">
+      <c r="G164">
         <v>5.0052481782082898</v>
       </c>
-      <c r="H164" s="23">
+      <c r="H164">
         <v>9.6597052715799103E-2</v>
       </c>
     </row>
     <row r="165" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A165" s="23" t="s">
-        <v>16</v>
-      </c>
-      <c r="B165" s="26" t="s">
+      <c r="A165" t="s">
+        <v>16</v>
+      </c>
+      <c r="B165" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="C165" s="27">
+      <c r="C165" s="10">
         <v>5.3968867851522599</v>
       </c>
-      <c r="D165" s="27">
+      <c r="D165" s="10">
         <v>1.0141670475670601</v>
       </c>
-      <c r="E165" s="23">
+      <c r="E165">
         <v>4029</v>
       </c>
-      <c r="F165" s="23">
+      <c r="F165">
         <v>2.5485163296002402</v>
       </c>
-      <c r="G165" s="23">
+      <c r="G165">
         <v>8.2452572407042801</v>
       </c>
-      <c r="H165" s="28">
+      <c r="H165" s="20">
         <v>6.7580728035920899E-7</v>
       </c>
     </row>
     <row r="166" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A166" s="23" t="s">
-        <v>16</v>
-      </c>
-      <c r="B166" s="23" t="s">
+      <c r="A166" t="s">
+        <v>16</v>
+      </c>
+      <c r="B166" t="s">
         <v>20</v>
       </c>
-      <c r="C166" s="25">
+      <c r="C166" s="6">
         <v>1.4992932542569199</v>
       </c>
-      <c r="D166" s="25">
+      <c r="D166" s="6">
         <v>0.97102647345812498</v>
       </c>
-      <c r="E166" s="23">
+      <c r="E166">
         <v>4029</v>
       </c>
-      <c r="F166" s="23">
+      <c r="F166">
         <v>-1.2279133979333099</v>
       </c>
-      <c r="G166" s="23">
+      <c r="G166">
         <v>4.22649990644714</v>
       </c>
-      <c r="H166" s="23">
+      <c r="H166">
         <v>0.411206108556673</v>
       </c>
     </row>
     <row r="167" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A167" s="23" t="s">
-        <v>16</v>
-      </c>
-      <c r="B167" s="26" t="s">
+      <c r="A167" t="s">
+        <v>16</v>
+      </c>
+      <c r="B167" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="C167" s="27">
+      <c r="C167" s="10">
         <v>4.6390102044581996</v>
       </c>
-      <c r="D167" s="27">
+      <c r="D167" s="10">
         <v>0.98924107585250298</v>
       </c>
-      <c r="E167" s="23">
+      <c r="E167">
         <v>4029</v>
       </c>
-      <c r="F167" s="23">
+      <c r="F167">
         <v>1.8606463632780199</v>
       </c>
-      <c r="G167" s="23">
+      <c r="G167">
         <v>7.4173740456383799</v>
       </c>
-      <c r="H167" s="28">
+      <c r="H167" s="20">
         <v>1.6834560508494099E-5</v>
       </c>
     </row>
@@ -3224,8 +3273,8 @@
         <v>53</v>
       </c>
     </row>
-    <row r="172" spans="1:8" s="29" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A172" s="29" t="s">
+    <row r="172" spans="1:8" s="22" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A172" s="22" t="s">
         <v>54</v>
       </c>
     </row>
@@ -3235,16 +3284,17 @@
       </c>
     </row>
     <row r="175" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="C175" t="s">
+      <c r="B175" s="3"/>
+      <c r="C175" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="D175" t="s">
+      <c r="D175" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="E175" t="s">
+      <c r="E175" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="F175" t="s">
+      <c r="F175" s="3" t="s">
         <v>41</v>
       </c>
     </row>
@@ -3252,13 +3302,13 @@
       <c r="B176" t="s">
         <v>43</v>
       </c>
-      <c r="C176">
+      <c r="C176" s="27">
         <v>1995316.38845618</v>
       </c>
-      <c r="D176">
+      <c r="D176" s="26">
         <v>1</v>
       </c>
-      <c r="E176">
+      <c r="E176" s="25">
         <v>7416.2457534920304</v>
       </c>
       <c r="F176">
@@ -3269,13 +3319,13 @@
       <c r="B177" t="s">
         <v>2</v>
       </c>
-      <c r="C177">
+      <c r="C177" s="27">
         <v>7657.4168515859601</v>
       </c>
-      <c r="D177">
+      <c r="D177" s="26">
         <v>3</v>
       </c>
-      <c r="E177">
+      <c r="E177" s="25">
         <v>9.4870978084553297</v>
       </c>
       <c r="F177" s="11">
@@ -3286,13 +3336,13 @@
       <c r="B178" t="s">
         <v>44</v>
       </c>
-      <c r="C178">
+      <c r="C178" s="27">
         <v>65263.020918036797</v>
       </c>
-      <c r="D178">
+      <c r="D178" s="26">
         <v>1</v>
       </c>
-      <c r="E178">
+      <c r="E178" s="25">
         <v>242.57135587300999</v>
       </c>
       <c r="F178" s="11">
@@ -3303,13 +3353,13 @@
       <c r="B179" t="s">
         <v>45</v>
       </c>
-      <c r="C179">
+      <c r="C179" s="27">
         <v>2411.4312239072801</v>
       </c>
-      <c r="D179">
+      <c r="D179" s="26">
         <v>1</v>
       </c>
-      <c r="E179">
+      <c r="E179" s="25">
         <v>8.9628725938433895</v>
       </c>
       <c r="F179">
@@ -3320,13 +3370,13 @@
       <c r="B180" t="s">
         <v>50</v>
       </c>
-      <c r="C180">
+      <c r="C180" s="27">
         <v>3775.4039348363899</v>
       </c>
-      <c r="D180">
+      <c r="D180" s="26">
         <v>1</v>
       </c>
-      <c r="E180">
+      <c r="E180" s="25">
         <v>14.032523143415499</v>
       </c>
       <c r="F180">
@@ -3337,13 +3387,13 @@
       <c r="B181" t="s">
         <v>48</v>
       </c>
-      <c r="C181">
+      <c r="C181" s="27">
         <v>3323.4590460683698</v>
       </c>
-      <c r="D181">
+      <c r="D181" s="26">
         <v>1</v>
       </c>
-      <c r="E181">
+      <c r="E181" s="25">
         <v>12.3527221947892</v>
       </c>
       <c r="F181">
@@ -3351,43 +3401,46 @@
       </c>
     </row>
     <row r="182" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B182" t="s">
+      <c r="B182" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="C182">
+      <c r="C182" s="28">
         <v>1084258.1695316799</v>
       </c>
-      <c r="D182">
+      <c r="D182" s="3">
         <v>4030</v>
       </c>
-      <c r="E182" t="s">
+      <c r="E182" s="29" t="s">
         <v>42</v>
       </c>
-      <c r="F182" t="s">
+      <c r="F182" s="29" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="185" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A185" t="s">
+      <c r="A185" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="B185" t="s">
+      <c r="B185" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="C185" t="s">
+      <c r="C185" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="D185" t="s">
+      <c r="D185" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="E185" t="s">
+      <c r="E185" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="F185" t="s">
+      <c r="F185" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="G185" t="s">
+      <c r="G185" s="3" t="s">
         <v>15</v>
+      </c>
+      <c r="H185" s="3" t="s">
+        <v>59</v>
       </c>
     </row>
     <row r="186" spans="1:8" x14ac:dyDescent="0.25">
@@ -3412,6 +3465,9 @@
       <c r="G186">
         <v>102.30172196015801</v>
       </c>
+      <c r="H186" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="187" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A187" t="s">
@@ -3435,6 +3491,9 @@
       <c r="G187">
         <v>101.796330018795</v>
       </c>
+      <c r="H187" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="188" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A188" t="s">
@@ -3458,6 +3517,9 @@
       <c r="G188">
         <v>101.45478389237999</v>
       </c>
+      <c r="H188" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="189" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A189" t="s">
@@ -3482,162 +3544,162 @@
         <v>98.426466134869301</v>
       </c>
       <c r="H189" t="s">
-        <v>23</v>
+        <v>16</v>
       </c>
     </row>
     <row r="190" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A190" t="s">
-        <v>16</v>
-      </c>
-      <c r="B190" t="s">
+      <c r="A190" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B190" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="C190" s="6">
+      <c r="C190" s="5">
         <v>0.727701646874654</v>
       </c>
-      <c r="D190" s="6">
+      <c r="D190" s="5">
         <v>0.61850510628438005</v>
       </c>
-      <c r="E190">
+      <c r="E190" s="4">
         <v>4030</v>
       </c>
-      <c r="F190">
+      <c r="F190" s="4">
         <v>-1.0094198999177699</v>
       </c>
-      <c r="G190">
+      <c r="G190" s="4">
         <v>2.4648231936670699</v>
       </c>
-      <c r="H190">
+      <c r="H190" s="4">
         <v>0.64173544755235801</v>
       </c>
     </row>
     <row r="191" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A191" t="s">
-        <v>16</v>
-      </c>
-      <c r="B191" t="s">
+      <c r="A191" s="23" t="s">
+        <v>16</v>
+      </c>
+      <c r="B191" s="23" t="s">
         <v>18</v>
       </c>
-      <c r="C191" s="6">
+      <c r="C191" s="24">
         <v>2.1803679362044401</v>
       </c>
-      <c r="D191" s="6">
+      <c r="D191" s="24">
         <v>0.97736330712431396</v>
       </c>
-      <c r="E191">
+      <c r="E191" s="23">
         <v>4030</v>
       </c>
-      <c r="F191">
+      <c r="F191" s="23">
         <v>-0.56463585212211698</v>
       </c>
-      <c r="G191">
+      <c r="G191" s="23">
         <v>4.9253717245309998</v>
       </c>
-      <c r="H191">
+      <c r="H191" s="23">
         <v>0.115105756443977</v>
       </c>
     </row>
     <row r="192" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A192" t="s">
-        <v>16</v>
-      </c>
-      <c r="B192" t="s">
+      <c r="A192" s="23" t="s">
+        <v>16</v>
+      </c>
+      <c r="B192" s="30" t="s">
         <v>19</v>
       </c>
-      <c r="C192" s="6">
+      <c r="C192" s="31">
         <v>5.2758935533235602</v>
       </c>
-      <c r="D192" s="6">
+      <c r="D192" s="24">
         <v>1.0113147151211801</v>
       </c>
-      <c r="E192">
+      <c r="E192" s="23">
         <v>4030</v>
       </c>
-      <c r="F192">
+      <c r="F192" s="23">
         <v>2.43553449343006</v>
       </c>
-      <c r="G192">
+      <c r="G192" s="23">
         <v>8.1162526132170694</v>
       </c>
-      <c r="H192" s="11">
+      <c r="H192" s="32">
         <v>1.16909659808595E-6</v>
       </c>
     </row>
     <row r="193" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A193" t="s">
-        <v>16</v>
-      </c>
-      <c r="B193" t="s">
+      <c r="A193" s="23" t="s">
+        <v>16</v>
+      </c>
+      <c r="B193" s="23" t="s">
         <v>20</v>
       </c>
-      <c r="C193" s="6">
+      <c r="C193" s="24">
         <v>1.4526662893297899</v>
       </c>
-      <c r="D193" s="6">
+      <c r="D193" s="24">
         <v>0.97072479511805299</v>
       </c>
-      <c r="E193">
+      <c r="E193" s="23">
         <v>4030</v>
       </c>
-      <c r="F193">
+      <c r="F193" s="23">
         <v>-1.27369270184385</v>
       </c>
-      <c r="G193">
+      <c r="G193" s="23">
         <v>4.1790252805034296</v>
       </c>
-      <c r="H193">
+      <c r="H193" s="23">
         <v>0.43968456364564301</v>
       </c>
     </row>
     <row r="194" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A194" t="s">
-        <v>16</v>
-      </c>
-      <c r="B194" t="s">
+      <c r="A194" s="23" t="s">
+        <v>16</v>
+      </c>
+      <c r="B194" s="30" t="s">
         <v>21</v>
       </c>
-      <c r="C194" s="6">
+      <c r="C194" s="31">
         <v>4.5481919064489098</v>
       </c>
-      <c r="D194" s="6">
+      <c r="D194" s="24">
         <v>0.98766410442744501</v>
       </c>
-      <c r="E194">
+      <c r="E194" s="23">
         <v>4030</v>
       </c>
-      <c r="F194">
+      <c r="F194" s="23">
         <v>1.77425749691551</v>
       </c>
-      <c r="G194">
+      <c r="G194" s="23">
         <v>7.3221263159823096</v>
       </c>
-      <c r="H194" s="11">
+      <c r="H194" s="32">
         <v>2.5240764506273499E-5</v>
       </c>
     </row>
     <row r="195" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A195" t="s">
-        <v>16</v>
-      </c>
-      <c r="B195" t="s">
+      <c r="A195" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="B195" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="C195" s="6">
+      <c r="C195" s="8">
         <v>3.0955256171191201</v>
       </c>
-      <c r="D195" s="6">
+      <c r="D195" s="8">
         <v>1.17872817862512</v>
       </c>
-      <c r="E195">
+      <c r="E195" s="7">
         <v>4030</v>
       </c>
-      <c r="F195">
+      <c r="F195" s="7">
         <v>-0.215027676776606</v>
       </c>
-      <c r="G195">
+      <c r="G195" s="7">
         <v>6.4060789110148502</v>
       </c>
-      <c r="H195">
+      <c r="H195" s="7">
         <v>4.3019465129833297E-2</v>
       </c>
     </row>

--- a/eg_data/NHANES/PF/30_Waist.xlsx
+++ b/eg_data/NHANES/PF/30_Waist.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sadoh\OneDrive\Documents\GitHub\DietR\eg_data\NHANES\PF\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{47CD5B55-255A-4C07-86CB-17EA5FA5E1E4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{09A3BE37-9021-4349-99AC-BC1F4E040E46}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="36450" yWindow="-3315" windowWidth="12765" windowHeight="15540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="22410" yWindow="-3150" windowWidth="24075" windowHeight="15540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Waist" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="342" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="434" uniqueCount="64">
   <si>
     <t>Plain means</t>
   </si>
@@ -131,9 +131,6 @@
     <t>+ PF</t>
   </si>
   <si>
-    <t>lm.agtl &lt;-    lm( BMXWAIST ~ DivGroup + RIDAGEYR + Gender + PF_TOTAL_LEG, data=df)</t>
-  </si>
-  <si>
     <t xml:space="preserve">All terms are significant.  </t>
   </si>
   <si>
@@ -149,9 +146,6 @@
     <t>DivGroup, Age, Gender, KCAL, FIBE, PF</t>
   </si>
   <si>
-    <t>lm.agkfp &lt;-    lm( BMXWAIST ~ DivGroup + RIDAGEYR + Gender + KCAL + FIBE + PF_TOTAL_LEG, data=df)</t>
-  </si>
-  <si>
     <t>Sum Sq</t>
   </si>
   <si>
@@ -182,9 +176,6 @@
     <t>FIBE</t>
   </si>
   <si>
-    <t>PF_TOTAL_LEG</t>
-  </si>
-  <si>
     <t>Residuals</t>
   </si>
   <si>
@@ -203,12 +194,6 @@
     <t>DivGroup, Age, Gender, FIBE/1000kcal, PF</t>
   </si>
   <si>
-    <t xml:space="preserve">  lm.agkf1000p &lt;-    lm( BMXWAIST ~ DivGroup + RIDAGEYR + Gender + KCAL + FIBE1000kcal + PF_TOTAL_LEG, data=df)</t>
-  </si>
-  <si>
-    <t>lm.agf1000p &lt;-    lm( BMXWAIST ~ DivGroup + RIDAGEYR + Gender  + FIBE1000kcal + PF_TOTAL_LEG, data=df)</t>
-  </si>
-  <si>
     <t xml:space="preserve">The difference between DivNA and Div2 and Div0 and Div2 became slightly smaller, but </t>
   </si>
   <si>
@@ -216,6 +201,33 @@
   </si>
   <si>
     <t>p-value</t>
+  </si>
+  <si>
+    <t>lm.agkfp &lt;-    lm( BMXWAIST ~ DivGroup + RIDAGEYR + Gender + KCAL + FIBE + PF_ALL, data=df)</t>
+  </si>
+  <si>
+    <t>PF_ALL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  lm.agkf1000p &lt;-    lm( BMXWAIST ~ DivGroup + RIDAGEYR + Gender + KCAL + FIBE1000kcal + PF_ALL, data=df)</t>
+  </si>
+  <si>
+    <t>lm.agf1000p &lt;-    lm( BMXWAIST ~ DivGroup + RIDAGEYR + Gender  + FIBE1000kcal + PF_ALL, data=df)</t>
+  </si>
+  <si>
+    <t>lm.agtl &lt;-    lm( BMXWAIST ~ DivGroup + RIDAGEYR + Gender + PF_ALL, data=df)</t>
+  </si>
+  <si>
+    <t>Contrast</t>
+  </si>
+  <si>
+    <t>Emmean</t>
+  </si>
+  <si>
+    <t>For publication</t>
+  </si>
+  <si>
+    <t>F-value</t>
   </si>
 </sst>
 </file>
@@ -225,7 +237,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0"/>
   </numFmts>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -243,6 +255,20 @@
     <font>
       <sz val="11"/>
       <color theme="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -309,7 +335,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="33">
+  <cellXfs count="47">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" quotePrefix="1" applyFill="1"/>
@@ -333,8 +359,6 @@
     <xf numFmtId="11" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="11" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -344,9 +368,41 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="11" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -627,10 +683,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H199"/>
+  <dimension ref="A1:Q199"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A80" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I96" sqref="I96"/>
+    <sheetView tabSelected="1" topLeftCell="A164" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="J175" sqref="J175:Q196"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -638,6 +694,8 @@
     <col min="2" max="2" width="14.5703125" customWidth="1"/>
     <col min="3" max="3" width="10" customWidth="1"/>
     <col min="9" max="9" width="11.85546875" customWidth="1"/>
+    <col min="10" max="10" width="9.85546875" customWidth="1"/>
+    <col min="11" max="11" width="13.140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
@@ -695,17 +753,17 @@
     </row>
     <row r="8" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
@@ -2022,12 +2080,12 @@
     </row>
     <row r="94" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
-        <v>31</v>
+        <v>59</v>
       </c>
     </row>
     <row r="95" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="97" spans="1:8" x14ac:dyDescent="0.25">
@@ -2053,7 +2111,7 @@
         <v>15</v>
       </c>
       <c r="H97" s="3" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
     </row>
     <row r="98" spans="1:8" x14ac:dyDescent="0.25">
@@ -2361,37 +2419,37 @@
     </row>
     <row r="115" spans="1:6" s="22" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A115" s="22" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="116" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
-        <v>37</v>
+        <v>55</v>
       </c>
     </row>
     <row r="117" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="119" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B119" s="3"/>
       <c r="C119" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="D119" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="E119" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="D119" s="3" t="s">
+      <c r="F119" s="3" t="s">
         <v>39</v>
-      </c>
-      <c r="E119" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="F119" s="3" t="s">
-        <v>41</v>
       </c>
     </row>
     <row r="120" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B120" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C120">
         <v>1648139.0184436101</v>
@@ -2425,7 +2483,7 @@
     </row>
     <row r="122" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B122" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C122">
         <v>65892.958365190803</v>
@@ -2442,7 +2500,7 @@
     </row>
     <row r="123" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B123" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C123">
         <v>1725.96729563689</v>
@@ -2459,7 +2517,7 @@
     </row>
     <row r="124" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B124" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C124">
         <v>3641.614890625</v>
@@ -2476,7 +2534,7 @@
     </row>
     <row r="125" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B125" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C125">
         <v>3613.8332252518699</v>
@@ -2493,7 +2551,7 @@
     </row>
     <row r="126" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B126" t="s">
-        <v>48</v>
+        <v>56</v>
       </c>
       <c r="C126">
         <v>1677.1633287544801</v>
@@ -2510,7 +2568,7 @@
     </row>
     <row r="127" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B127" s="3" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="C127" s="3">
         <v>1083106.6098613699</v>
@@ -2519,10 +2577,10 @@
         <v>4029</v>
       </c>
       <c r="E127" s="3" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="F127" s="3" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
     </row>
     <row r="130" spans="1:8" x14ac:dyDescent="0.25">
@@ -2548,7 +2606,7 @@
         <v>15</v>
       </c>
       <c r="H130" s="3" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
     </row>
     <row r="131" spans="1:8" x14ac:dyDescent="0.25">
@@ -2813,184 +2871,364 @@
     </row>
     <row r="142" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
     </row>
     <row r="144" spans="1:8" s="22" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A144" s="22" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="145" spans="1:8" x14ac:dyDescent="0.25">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="145" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A145" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="147" spans="1:8" x14ac:dyDescent="0.25">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="147" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A147" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="148" spans="1:8" x14ac:dyDescent="0.25">
+        <v>49</v>
+      </c>
+      <c r="J147" s="32" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="148" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B148" s="3"/>
       <c r="C148" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="D148" s="27" t="s">
+        <v>37</v>
+      </c>
+      <c r="E148" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="D148" s="3" t="s">
+      <c r="F148" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="E148" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="F148" s="3" t="s">
+      <c r="J148" s="33"/>
+      <c r="K148" s="34"/>
+      <c r="L148" s="34" t="s">
+        <v>36</v>
+      </c>
+      <c r="M148" s="35" t="s">
+        <v>37</v>
+      </c>
+      <c r="N148" s="34" t="s">
+        <v>63</v>
+      </c>
+      <c r="O148" s="34" t="s">
+        <v>54</v>
+      </c>
+      <c r="P148" s="33"/>
+      <c r="Q148" s="33"/>
+    </row>
+    <row r="149" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="B149" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="149" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B149" t="s">
-        <v>43</v>
-      </c>
-      <c r="C149">
+      <c r="C149" s="25">
         <v>1269832.58484727</v>
       </c>
       <c r="D149">
         <v>1</v>
       </c>
-      <c r="E149">
+      <c r="E149" s="6">
         <v>4721.3739273027504</v>
       </c>
       <c r="F149">
         <v>0</v>
       </c>
-    </row>
-    <row r="150" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="J149" s="33"/>
+      <c r="K149" s="33" t="s">
+        <v>41</v>
+      </c>
+      <c r="L149" s="36">
+        <v>1269832.58484727</v>
+      </c>
+      <c r="M149" s="33">
+        <v>1</v>
+      </c>
+      <c r="N149" s="37">
+        <v>4721.3739273027504</v>
+      </c>
+      <c r="O149" s="38" t="str">
+        <f>IF(F149&lt;0.0001,"&lt;0.0001",IF(F149&lt;0.001,"&lt;0.001",IF(F149&lt;0.01,"&lt;0.01",ROUND(F149,3))))</f>
+        <v>&lt;0.0001</v>
+      </c>
+      <c r="P149" s="33"/>
+      <c r="Q149" s="33"/>
+    </row>
+    <row r="150" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B150" t="s">
         <v>2</v>
       </c>
-      <c r="C150">
+      <c r="C150" s="25">
         <v>7965.3113341715698</v>
       </c>
       <c r="D150">
         <v>3</v>
       </c>
-      <c r="E150">
+      <c r="E150" s="6">
         <v>9.8719609983153997</v>
       </c>
       <c r="F150" s="11">
         <v>1.7485773336846901E-6</v>
       </c>
-    </row>
-    <row r="151" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="J150" s="33"/>
+      <c r="K150" s="33" t="s">
+        <v>2</v>
+      </c>
+      <c r="L150" s="36">
+        <v>7965.3113341715698</v>
+      </c>
+      <c r="M150" s="33">
+        <v>3</v>
+      </c>
+      <c r="N150" s="37">
+        <v>9.8719609983153997</v>
+      </c>
+      <c r="O150" s="38" t="str">
+        <f>IF(F150&lt;0.0001,"&lt;0.0001",IF(F150&lt;0.001,"&lt;0.001",IF(F150&lt;0.01,"&lt;0.01",ROUND(F150,3))))</f>
+        <v>&lt;0.0001</v>
+      </c>
+      <c r="P150" s="33"/>
+      <c r="Q150" s="33"/>
+    </row>
+    <row r="151" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B151" t="s">
-        <v>44</v>
-      </c>
-      <c r="C151">
+        <v>42</v>
+      </c>
+      <c r="C151" s="25">
         <v>65878.830343513706</v>
       </c>
       <c r="D151">
         <v>1</v>
       </c>
-      <c r="E151">
+      <c r="E151" s="6">
         <v>244.944566438637</v>
       </c>
       <c r="F151" s="11">
         <v>1.2121235029963401E-53</v>
       </c>
-    </row>
-    <row r="152" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="J151" s="33"/>
+      <c r="K151" s="33" t="s">
+        <v>42</v>
+      </c>
+      <c r="L151" s="36">
+        <v>65878.830343513706</v>
+      </c>
+      <c r="M151" s="33">
+        <v>1</v>
+      </c>
+      <c r="N151" s="37">
+        <v>244.944566438637</v>
+      </c>
+      <c r="O151" s="38" t="str">
+        <f>IF(F151&lt;0.0001,"&lt;0.0001",IF(F151&lt;0.001,"&lt;0.001",IF(F151&lt;0.01,"&lt;0.01",ROUND(F151,3))))</f>
+        <v>&lt;0.0001</v>
+      </c>
+      <c r="P151" s="33"/>
+      <c r="Q151" s="33"/>
+    </row>
+    <row r="152" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B152" t="s">
-        <v>45</v>
-      </c>
-      <c r="C152">
+        <v>43</v>
+      </c>
+      <c r="C152" s="25">
         <v>1664.0238375321501</v>
       </c>
       <c r="D152">
         <v>1</v>
       </c>
-      <c r="E152">
+      <c r="E152" s="6">
         <v>6.18701933993884</v>
       </c>
       <c r="F152">
         <v>1.2909230753858501E-2</v>
       </c>
-    </row>
-    <row r="153" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="J152" s="33"/>
+      <c r="K152" s="33" t="s">
+        <v>43</v>
+      </c>
+      <c r="L152" s="36">
+        <v>1664.0238375321501</v>
+      </c>
+      <c r="M152" s="33">
+        <v>1</v>
+      </c>
+      <c r="N152" s="37">
+        <v>6.18701933993884</v>
+      </c>
+      <c r="O152" s="38">
+        <f>IF(F152&lt;0.0001,"&lt;0.0001",IF(F152&lt;0.001,"&lt;0.001",IF(F152&lt;0.01,"&lt;0.01",ROUND(F152,3))))</f>
+        <v>1.2999999999999999E-2</v>
+      </c>
+      <c r="P152" s="33"/>
+      <c r="Q152" s="33"/>
+    </row>
+    <row r="153" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B153" s="18" t="s">
-        <v>46</v>
-      </c>
-      <c r="C153" s="18">
+        <v>44</v>
+      </c>
+      <c r="C153" s="28">
         <v>642.34855975257199</v>
       </c>
       <c r="D153" s="18">
         <v>1</v>
       </c>
-      <c r="E153" s="18">
+      <c r="E153" s="19">
         <v>2.38832093178728</v>
       </c>
       <c r="F153" s="18">
         <v>0.122323403277461</v>
       </c>
-    </row>
-    <row r="154" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="J153" s="33"/>
+      <c r="K153" s="33" t="s">
+        <v>44</v>
+      </c>
+      <c r="L153" s="36">
+        <v>642.34855975257199</v>
+      </c>
+      <c r="M153" s="33">
+        <v>1</v>
+      </c>
+      <c r="N153" s="37">
+        <v>2.38832093178728</v>
+      </c>
+      <c r="O153" s="38">
+        <f>IF(F153&lt;0.0001,"&lt;0.0001",IF(F153&lt;0.001,"&lt;0.001",IF(F153&lt;0.01,"&lt;0.01",ROUND(F153,3))))</f>
+        <v>0.122</v>
+      </c>
+      <c r="P153" s="33"/>
+      <c r="Q153" s="33"/>
+    </row>
+    <row r="154" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B154" t="s">
-        <v>50</v>
-      </c>
-      <c r="C154">
+        <v>47</v>
+      </c>
+      <c r="C154" s="25">
         <v>3104.6221146958401</v>
       </c>
       <c r="D154">
         <v>1</v>
       </c>
-      <c r="E154">
+      <c r="E154" s="6">
         <v>11.5433184510819</v>
       </c>
       <c r="F154">
         <v>6.8652276616774303E-4</v>
       </c>
-    </row>
-    <row r="155" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="J154" s="33"/>
+      <c r="K154" s="33" t="s">
+        <v>47</v>
+      </c>
+      <c r="L154" s="36">
+        <v>3104.6221146958401</v>
+      </c>
+      <c r="M154" s="33">
+        <v>1</v>
+      </c>
+      <c r="N154" s="37">
+        <v>11.5433184510819</v>
+      </c>
+      <c r="O154" s="38" t="str">
+        <f>IF(F154&lt;0.0001,"&lt;0.0001",IF(F154&lt;0.001,"&lt;0.001",IF(F154&lt;0.01,"&lt;0.01",ROUND(F154,3))))</f>
+        <v>&lt;0.001</v>
+      </c>
+      <c r="P154" s="33"/>
+      <c r="Q154" s="33"/>
+    </row>
+    <row r="155" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B155" t="s">
-        <v>48</v>
-      </c>
-      <c r="C155">
+        <v>56</v>
+      </c>
+      <c r="C155" s="25">
         <v>1607.05348319584</v>
       </c>
       <c r="D155">
         <v>1</v>
       </c>
-      <c r="E155">
+      <c r="E155" s="6">
         <v>5.9751974440429896</v>
       </c>
       <c r="F155">
         <v>1.45510313437961E-2</v>
       </c>
-    </row>
-    <row r="156" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="J155" s="33"/>
+      <c r="K155" s="33" t="s">
+        <v>56</v>
+      </c>
+      <c r="L155" s="36">
+        <v>1607.05348319584</v>
+      </c>
+      <c r="M155" s="33">
+        <v>1</v>
+      </c>
+      <c r="N155" s="37">
+        <v>5.9751974440429896</v>
+      </c>
+      <c r="O155" s="38">
+        <f>IF(F155&lt;0.0001,"&lt;0.0001",IF(F155&lt;0.001,"&lt;0.001",IF(F155&lt;0.01,"&lt;0.01",ROUND(F155,3))))</f>
+        <v>1.4999999999999999E-2</v>
+      </c>
+      <c r="P155" s="33"/>
+      <c r="Q155" s="33"/>
+    </row>
+    <row r="156" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B156" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="C156" s="3">
+        <v>46</v>
+      </c>
+      <c r="C156" s="26">
         <v>1083615.8209719299</v>
       </c>
       <c r="D156" s="3">
         <v>4029</v>
       </c>
       <c r="E156" s="3" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="F156" s="3" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="158" spans="1:8" x14ac:dyDescent="0.25">
+        <v>40</v>
+      </c>
+      <c r="J156" s="33"/>
+      <c r="K156" s="34" t="s">
+        <v>46</v>
+      </c>
+      <c r="L156" s="39">
+        <v>1083615.8209719299</v>
+      </c>
+      <c r="M156" s="34">
+        <v>4029</v>
+      </c>
+      <c r="N156" s="34" t="s">
+        <v>40</v>
+      </c>
+      <c r="O156" s="34" t="s">
+        <v>40</v>
+      </c>
+      <c r="P156" s="33"/>
+      <c r="Q156" s="33"/>
+    </row>
+    <row r="157" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="J157" s="33"/>
+      <c r="K157" s="33"/>
+      <c r="L157" s="33"/>
+      <c r="M157" s="33"/>
+      <c r="N157" s="33"/>
+      <c r="O157" s="33"/>
+      <c r="P157" s="33"/>
+      <c r="Q157" s="33"/>
+    </row>
+    <row r="158" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A158" s="3" t="s">
         <v>2</v>
       </c>
       <c r="B158" s="3" t="s">
-        <v>11</v>
+        <v>60</v>
       </c>
       <c r="C158" s="3" t="s">
-        <v>3</v>
+        <v>61</v>
       </c>
       <c r="D158" s="3" t="s">
         <v>12</v>
@@ -3005,10 +3243,34 @@
         <v>15</v>
       </c>
       <c r="H158" s="3" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="159" spans="1:8" x14ac:dyDescent="0.25">
+        <v>54</v>
+      </c>
+      <c r="J158" s="34" t="s">
+        <v>2</v>
+      </c>
+      <c r="K158" s="34" t="s">
+        <v>60</v>
+      </c>
+      <c r="L158" s="34" t="s">
+        <v>61</v>
+      </c>
+      <c r="M158" s="34" t="s">
+        <v>12</v>
+      </c>
+      <c r="N158" s="34" t="s">
+        <v>13</v>
+      </c>
+      <c r="O158" s="34" t="s">
+        <v>14</v>
+      </c>
+      <c r="P158" s="34" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q158" s="34" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="159" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A159" t="s">
         <v>4</v>
       </c>
@@ -3024,17 +3286,41 @@
       <c r="E159">
         <v>4029</v>
       </c>
-      <c r="F159">
+      <c r="F159" s="6">
         <v>100.14007994895501</v>
       </c>
-      <c r="G159">
+      <c r="G159" s="6">
         <v>102.32494044643001</v>
       </c>
       <c r="H159" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="160" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="J159" s="33" t="s">
+        <v>4</v>
+      </c>
+      <c r="K159" s="33" t="s">
+        <v>16</v>
+      </c>
+      <c r="L159" s="37">
+        <v>101.232510197693</v>
+      </c>
+      <c r="M159" s="37">
+        <v>0.38896161062031298</v>
+      </c>
+      <c r="N159" s="33">
+        <v>4029</v>
+      </c>
+      <c r="O159" s="37">
+        <v>100.14007994895501</v>
+      </c>
+      <c r="P159" s="37">
+        <v>102.32494044643001</v>
+      </c>
+      <c r="Q159" s="33" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="160" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A160" t="s">
         <v>5</v>
       </c>
@@ -3050,17 +3336,41 @@
       <c r="E160">
         <v>4029</v>
       </c>
-      <c r="F160">
+      <c r="F160" s="6">
         <v>99.160634955080496</v>
       </c>
-      <c r="G160">
+      <c r="G160" s="6">
         <v>101.78863227891701</v>
       </c>
       <c r="H160" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="161" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="J160" s="33" t="s">
+        <v>5</v>
+      </c>
+      <c r="K160" s="33" t="s">
+        <v>16</v>
+      </c>
+      <c r="L160" s="37">
+        <v>100.474633616999</v>
+      </c>
+      <c r="M160" s="37">
+        <v>0.46785141338165298</v>
+      </c>
+      <c r="N160" s="33">
+        <v>4029</v>
+      </c>
+      <c r="O160" s="37">
+        <v>99.160634955080496</v>
+      </c>
+      <c r="P160" s="37">
+        <v>101.78863227891701</v>
+      </c>
+      <c r="Q160" s="33" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="161" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A161" t="s">
         <v>6</v>
       </c>
@@ -3076,17 +3386,41 @@
       <c r="E161">
         <v>4029</v>
       </c>
-      <c r="F161">
+      <c r="F161" s="6">
         <v>96.548486649156999</v>
       </c>
-      <c r="G161">
+      <c r="G161" s="6">
         <v>101.402194076326</v>
       </c>
       <c r="H161" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="162" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="J161" s="33" t="s">
+        <v>6</v>
+      </c>
+      <c r="K161" s="33" t="s">
+        <v>16</v>
+      </c>
+      <c r="L161" s="37">
+        <v>98.975340362741704</v>
+      </c>
+      <c r="M161" s="37">
+        <v>0.86408530912331705</v>
+      </c>
+      <c r="N161" s="33">
+        <v>4029</v>
+      </c>
+      <c r="O161" s="37">
+        <v>96.548486649156999</v>
+      </c>
+      <c r="P161" s="37">
+        <v>101.402194076326</v>
+      </c>
+      <c r="Q161" s="33" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="162" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A162" t="s">
         <v>7</v>
       </c>
@@ -3102,17 +3436,41 @@
       <c r="E162">
         <v>4029</v>
       </c>
-      <c r="F162">
+      <c r="F162" s="6">
         <v>93.337167951035298</v>
       </c>
-      <c r="G162">
+      <c r="G162" s="6">
         <v>98.334078874045602</v>
       </c>
       <c r="H162" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="163" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="J162" s="33" t="s">
+        <v>7</v>
+      </c>
+      <c r="K162" s="33" t="s">
+        <v>16</v>
+      </c>
+      <c r="L162" s="37">
+        <v>95.8356234125404</v>
+      </c>
+      <c r="M162" s="37">
+        <v>0.88957923079615797</v>
+      </c>
+      <c r="N162" s="33">
+        <v>4029</v>
+      </c>
+      <c r="O162" s="37">
+        <v>93.337167951035298</v>
+      </c>
+      <c r="P162" s="37">
+        <v>98.334078874045602</v>
+      </c>
+      <c r="Q162" s="33" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="163" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A163" s="4" t="s">
         <v>16</v>
       </c>
@@ -3128,17 +3486,42 @@
       <c r="E163" s="4">
         <v>4029</v>
       </c>
-      <c r="F163" s="4">
+      <c r="F163" s="5">
         <v>-0.979811591066582</v>
       </c>
-      <c r="G163" s="4">
+      <c r="G163" s="5">
         <v>2.4955647524547002</v>
       </c>
       <c r="H163" s="4">
         <v>0.61097925553195997</v>
       </c>
-    </row>
-    <row r="164" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="J163" s="40" t="s">
+        <v>16</v>
+      </c>
+      <c r="K163" s="40" t="s">
+        <v>17</v>
+      </c>
+      <c r="L163" s="41">
+        <v>0.75787658069405806</v>
+      </c>
+      <c r="M163" s="41">
+        <v>0.61870676944833902</v>
+      </c>
+      <c r="N163" s="40">
+        <v>4029</v>
+      </c>
+      <c r="O163" s="41">
+        <v>-0.979811591066582</v>
+      </c>
+      <c r="P163" s="41">
+        <v>2.4955647524547002</v>
+      </c>
+      <c r="Q163" s="42">
+        <f>IF(H163&lt;0.0001,"&lt;0.0001",IF(H163&lt;0.001,"&lt;0.001",IF(H163&lt;0.01,"&lt;0.01",ROUND(H163,3))))</f>
+        <v>0.61099999999999999</v>
+      </c>
+    </row>
+    <row r="164" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A164" t="s">
         <v>16</v>
       </c>
@@ -3154,17 +3537,42 @@
       <c r="E164">
         <v>4029</v>
       </c>
-      <c r="F164">
+      <c r="F164" s="6">
         <v>-0.49090850830634702</v>
       </c>
-      <c r="G164">
+      <c r="G164" s="6">
         <v>5.0052481782082898</v>
       </c>
       <c r="H164">
         <v>9.6597052715799103E-2</v>
       </c>
-    </row>
-    <row r="165" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="J164" s="33" t="s">
+        <v>16</v>
+      </c>
+      <c r="K164" s="33" t="s">
+        <v>18</v>
+      </c>
+      <c r="L164" s="37">
+        <v>2.2571698349509699</v>
+      </c>
+      <c r="M164" s="37">
+        <v>0.97845787384566696</v>
+      </c>
+      <c r="N164" s="33">
+        <v>4029</v>
+      </c>
+      <c r="O164" s="37">
+        <v>-0.49090850830634702</v>
+      </c>
+      <c r="P164" s="37">
+        <v>5.0052481782082898</v>
+      </c>
+      <c r="Q164" s="43">
+        <f t="shared" ref="Q164:Q168" si="0">IF(H164&lt;0.0001,"&lt;0.0001",IF(H164&lt;0.001,"&lt;0.001",IF(H164&lt;0.01,"&lt;0.01",ROUND(H164,3))))</f>
+        <v>9.7000000000000003E-2</v>
+      </c>
+    </row>
+    <row r="165" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A165" t="s">
         <v>16</v>
       </c>
@@ -3180,17 +3588,42 @@
       <c r="E165">
         <v>4029</v>
       </c>
-      <c r="F165">
+      <c r="F165" s="6">
         <v>2.5485163296002402</v>
       </c>
-      <c r="G165">
+      <c r="G165" s="6">
         <v>8.2452572407042801</v>
       </c>
       <c r="H165" s="20">
         <v>6.7580728035920899E-7</v>
       </c>
-    </row>
-    <row r="166" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="J165" s="33" t="s">
+        <v>16</v>
+      </c>
+      <c r="K165" s="33" t="s">
+        <v>19</v>
+      </c>
+      <c r="L165" s="37">
+        <v>5.3968867851522599</v>
+      </c>
+      <c r="M165" s="37">
+        <v>1.0141670475670601</v>
+      </c>
+      <c r="N165" s="33">
+        <v>4029</v>
+      </c>
+      <c r="O165" s="37">
+        <v>2.5485163296002402</v>
+      </c>
+      <c r="P165" s="37">
+        <v>8.2452572407042801</v>
+      </c>
+      <c r="Q165" s="43" t="str">
+        <f t="shared" si="0"/>
+        <v>&lt;0.0001</v>
+      </c>
+    </row>
+    <row r="166" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A166" t="s">
         <v>16</v>
       </c>
@@ -3206,17 +3639,42 @@
       <c r="E166">
         <v>4029</v>
       </c>
-      <c r="F166">
+      <c r="F166" s="6">
         <v>-1.2279133979333099</v>
       </c>
-      <c r="G166">
+      <c r="G166" s="6">
         <v>4.22649990644714</v>
       </c>
       <c r="H166">
         <v>0.411206108556673</v>
       </c>
-    </row>
-    <row r="167" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="J166" s="33" t="s">
+        <v>16</v>
+      </c>
+      <c r="K166" s="33" t="s">
+        <v>20</v>
+      </c>
+      <c r="L166" s="37">
+        <v>1.4992932542569199</v>
+      </c>
+      <c r="M166" s="37">
+        <v>0.97102647345812498</v>
+      </c>
+      <c r="N166" s="33">
+        <v>4029</v>
+      </c>
+      <c r="O166" s="37">
+        <v>-1.2279133979333099</v>
+      </c>
+      <c r="P166" s="37">
+        <v>4.22649990644714</v>
+      </c>
+      <c r="Q166" s="43">
+        <f t="shared" si="0"/>
+        <v>0.41099999999999998</v>
+      </c>
+    </row>
+    <row r="167" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A167" t="s">
         <v>16</v>
       </c>
@@ -3232,17 +3690,42 @@
       <c r="E167">
         <v>4029</v>
       </c>
-      <c r="F167">
+      <c r="F167" s="6">
         <v>1.8606463632780199</v>
       </c>
-      <c r="G167">
+      <c r="G167" s="6">
         <v>7.4173740456383799</v>
       </c>
       <c r="H167" s="20">
         <v>1.6834560508494099E-5</v>
       </c>
-    </row>
-    <row r="168" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="J167" s="33" t="s">
+        <v>16</v>
+      </c>
+      <c r="K167" s="33" t="s">
+        <v>21</v>
+      </c>
+      <c r="L167" s="37">
+        <v>4.6390102044581996</v>
+      </c>
+      <c r="M167" s="37">
+        <v>0.98924107585250298</v>
+      </c>
+      <c r="N167" s="33">
+        <v>4029</v>
+      </c>
+      <c r="O167" s="37">
+        <v>1.8606463632780199</v>
+      </c>
+      <c r="P167" s="37">
+        <v>7.4173740456383799</v>
+      </c>
+      <c r="Q167" s="43" t="str">
+        <f t="shared" si="0"/>
+        <v>&lt;0.0001</v>
+      </c>
+    </row>
+    <row r="168" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A168" s="7" t="s">
         <v>16</v>
       </c>
@@ -3258,166 +3741,315 @@
       <c r="E168" s="7">
         <v>4029</v>
       </c>
-      <c r="F168" s="7">
+      <c r="F168" s="8">
         <v>-0.171240878889621</v>
       </c>
-      <c r="G168" s="7">
+      <c r="G168" s="8">
         <v>6.4506747792921901</v>
       </c>
       <c r="H168" s="7">
         <v>3.8861780561662701E-2</v>
       </c>
-    </row>
-    <row r="170" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="J168" s="44" t="s">
+        <v>16</v>
+      </c>
+      <c r="K168" s="44" t="s">
+        <v>22</v>
+      </c>
+      <c r="L168" s="45">
+        <v>3.1397169502012798</v>
+      </c>
+      <c r="M168" s="45">
+        <v>1.1788720528269201</v>
+      </c>
+      <c r="N168" s="44">
+        <v>4029</v>
+      </c>
+      <c r="O168" s="45">
+        <v>-0.171240878889621</v>
+      </c>
+      <c r="P168" s="45">
+        <v>6.4506747792921901</v>
+      </c>
+      <c r="Q168" s="46">
+        <f t="shared" si="0"/>
+        <v>3.9E-2</v>
+      </c>
+    </row>
+    <row r="170" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A170" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="172" spans="1:8" s="22" customFormat="1" x14ac:dyDescent="0.25">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="172" spans="1:17" s="22" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A172" s="22" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="173" spans="1:8" x14ac:dyDescent="0.25">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="173" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A173" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="175" spans="1:8" x14ac:dyDescent="0.25">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="175" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B175" s="3"/>
       <c r="C175" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="D175" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="E175" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="D175" s="3" t="s">
+      <c r="F175" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="E175" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="F175" s="3" t="s">
+      <c r="K175" s="3"/>
+      <c r="L175" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="M175" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="N175" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="O175" s="3" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="176" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="B176" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="176" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B176" t="s">
-        <v>43</v>
-      </c>
-      <c r="C176" s="27">
+      <c r="C176" s="25">
         <v>1995316.38845618</v>
       </c>
-      <c r="D176" s="26">
+      <c r="D176" s="24">
         <v>1</v>
       </c>
-      <c r="E176" s="25">
+      <c r="E176" s="23">
         <v>7416.2457534920304</v>
       </c>
       <c r="F176">
         <v>0</v>
       </c>
-    </row>
-    <row r="177" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="K176" t="s">
+        <v>41</v>
+      </c>
+      <c r="L176" s="25">
+        <v>1995316.38845618</v>
+      </c>
+      <c r="M176" s="24">
+        <v>1</v>
+      </c>
+      <c r="N176" s="23">
+        <v>7416.2457534920304</v>
+      </c>
+      <c r="O176" s="24" t="str">
+        <f>IF(F176&lt;0.0001,"&lt;0.0001",IF(F176&lt;0.001,"&lt;0.001",IF(F176&lt;0.01,"&lt;0.01",ROUND(F176,3))))</f>
+        <v>&lt;0.0001</v>
+      </c>
+    </row>
+    <row r="177" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B177" t="s">
         <v>2</v>
       </c>
-      <c r="C177" s="27">
+      <c r="C177" s="25">
         <v>7657.4168515859601</v>
       </c>
-      <c r="D177" s="26">
+      <c r="D177" s="24">
         <v>3</v>
       </c>
-      <c r="E177" s="25">
+      <c r="E177" s="23">
         <v>9.4870978084553297</v>
       </c>
       <c r="F177" s="11">
         <v>3.0448737316294602E-6</v>
       </c>
-    </row>
-    <row r="178" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="K177" t="s">
+        <v>2</v>
+      </c>
+      <c r="L177" s="25">
+        <v>7657.4168515859601</v>
+      </c>
+      <c r="M177" s="24">
+        <v>3</v>
+      </c>
+      <c r="N177" s="23">
+        <v>9.4870978084553297</v>
+      </c>
+      <c r="O177" s="24" t="str">
+        <f>IF(F177&lt;0.0001,"&lt;0.0001",IF(F177&lt;0.001,"&lt;0.001",IF(F177&lt;0.01,"&lt;0.01",ROUND(F177,3))))</f>
+        <v>&lt;0.0001</v>
+      </c>
+    </row>
+    <row r="178" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B178" t="s">
-        <v>44</v>
-      </c>
-      <c r="C178" s="27">
+        <v>42</v>
+      </c>
+      <c r="C178" s="25">
         <v>65263.020918036797</v>
       </c>
-      <c r="D178" s="26">
+      <c r="D178" s="24">
         <v>1</v>
       </c>
-      <c r="E178" s="25">
+      <c r="E178" s="23">
         <v>242.57135587300999</v>
       </c>
       <c r="F178" s="11">
         <v>3.7247148877240001E-53</v>
       </c>
-    </row>
-    <row r="179" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="K178" t="s">
+        <v>42</v>
+      </c>
+      <c r="L178" s="25">
+        <v>65263.020918036797</v>
+      </c>
+      <c r="M178" s="24">
+        <v>1</v>
+      </c>
+      <c r="N178" s="23">
+        <v>242.57135587300999</v>
+      </c>
+      <c r="O178" s="24" t="str">
+        <f>IF(F178&lt;0.0001,"&lt;0.0001",IF(F178&lt;0.001,"&lt;0.001",IF(F178&lt;0.01,"&lt;0.01",ROUND(F178,3))))</f>
+        <v>&lt;0.0001</v>
+      </c>
+    </row>
+    <row r="179" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B179" t="s">
-        <v>45</v>
-      </c>
-      <c r="C179" s="27">
+        <v>43</v>
+      </c>
+      <c r="C179" s="25">
         <v>2411.4312239072801</v>
       </c>
-      <c r="D179" s="26">
+      <c r="D179" s="24">
         <v>1</v>
       </c>
-      <c r="E179" s="25">
+      <c r="E179" s="23">
         <v>8.9628725938433895</v>
       </c>
       <c r="F179">
         <v>2.7719480884888701E-3</v>
       </c>
-    </row>
-    <row r="180" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="K179" t="s">
+        <v>43</v>
+      </c>
+      <c r="L179" s="25">
+        <v>2411.4312239072801</v>
+      </c>
+      <c r="M179" s="24">
+        <v>1</v>
+      </c>
+      <c r="N179" s="23">
+        <v>8.9628725938433895</v>
+      </c>
+      <c r="O179" s="24" t="str">
+        <f>IF(F179&lt;0.0001,"&lt;0.0001",IF(F179&lt;0.001,"&lt;0.001",IF(F179&lt;0.01,"&lt;0.01",ROUND(F179,3))))</f>
+        <v>&lt;0.01</v>
+      </c>
+    </row>
+    <row r="180" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B180" t="s">
-        <v>50</v>
-      </c>
-      <c r="C180" s="27">
+        <v>47</v>
+      </c>
+      <c r="C180" s="25">
         <v>3775.4039348363899</v>
       </c>
-      <c r="D180" s="26">
+      <c r="D180" s="24">
         <v>1</v>
       </c>
-      <c r="E180" s="25">
+      <c r="E180" s="23">
         <v>14.032523143415499</v>
       </c>
       <c r="F180">
         <v>1.8218832461452199E-4</v>
       </c>
-    </row>
-    <row r="181" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="K180" t="s">
+        <v>47</v>
+      </c>
+      <c r="L180" s="25">
+        <v>3775.4039348363899</v>
+      </c>
+      <c r="M180" s="24">
+        <v>1</v>
+      </c>
+      <c r="N180" s="23">
+        <v>14.032523143415499</v>
+      </c>
+      <c r="O180" s="24" t="str">
+        <f>IF(F180&lt;0.0001,"&lt;0.0001",IF(F180&lt;0.001,"&lt;0.001",IF(F180&lt;0.01,"&lt;0.01",ROUND(F180,3))))</f>
+        <v>&lt;0.001</v>
+      </c>
+    </row>
+    <row r="181" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B181" t="s">
-        <v>48</v>
-      </c>
-      <c r="C181" s="27">
+        <v>56</v>
+      </c>
+      <c r="C181" s="25">
         <v>3323.4590460683698</v>
       </c>
-      <c r="D181" s="26">
+      <c r="D181" s="24">
         <v>1</v>
       </c>
-      <c r="E181" s="25">
+      <c r="E181" s="23">
         <v>12.3527221947892</v>
       </c>
       <c r="F181">
         <v>4.4518771631913399E-4</v>
       </c>
-    </row>
-    <row r="182" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="K181" t="s">
+        <v>56</v>
+      </c>
+      <c r="L181" s="25">
+        <v>3323.4590460683698</v>
+      </c>
+      <c r="M181" s="24">
+        <v>1</v>
+      </c>
+      <c r="N181" s="23">
+        <v>12.3527221947892</v>
+      </c>
+      <c r="O181" s="24" t="str">
+        <f>IF(F181&lt;0.0001,"&lt;0.0001",IF(F181&lt;0.001,"&lt;0.001",IF(F181&lt;0.01,"&lt;0.01",ROUND(F181,3))))</f>
+        <v>&lt;0.001</v>
+      </c>
+    </row>
+    <row r="182" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B182" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="C182" s="28">
+        <v>46</v>
+      </c>
+      <c r="C182" s="26">
         <v>1084258.1695316799</v>
       </c>
       <c r="D182" s="3">
         <v>4030</v>
       </c>
-      <c r="E182" s="29" t="s">
-        <v>42</v>
-      </c>
-      <c r="F182" s="29" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="185" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="E182" s="27" t="s">
+        <v>40</v>
+      </c>
+      <c r="F182" s="27" t="s">
+        <v>40</v>
+      </c>
+      <c r="K182" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="L182" s="26">
+        <v>1084258.1695316799</v>
+      </c>
+      <c r="M182" s="3">
+        <v>4030</v>
+      </c>
+      <c r="N182" s="27" t="s">
+        <v>40</v>
+      </c>
+      <c r="O182" s="27" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="185" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A185" s="3" t="s">
         <v>2</v>
       </c>
@@ -3440,10 +4072,34 @@
         <v>15</v>
       </c>
       <c r="H185" s="3" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="186" spans="1:8" x14ac:dyDescent="0.25">
+        <v>54</v>
+      </c>
+      <c r="J185" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="K185" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="L185" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M185" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="N185" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="O185" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="P185" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q185" s="3" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="186" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A186" t="s">
         <v>4</v>
       </c>
@@ -3468,8 +4124,32 @@
       <c r="H186" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="187" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="J186" t="s">
+        <v>4</v>
+      </c>
+      <c r="K186" t="s">
+        <v>16</v>
+      </c>
+      <c r="L186" s="6">
+        <v>101.209878392053</v>
+      </c>
+      <c r="M186" s="6">
+        <v>0.38875277517771301</v>
+      </c>
+      <c r="N186">
+        <v>4030</v>
+      </c>
+      <c r="O186" s="6">
+        <v>100.11803482394799</v>
+      </c>
+      <c r="P186" s="6">
+        <v>102.30172196015801</v>
+      </c>
+      <c r="Q186" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="187" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A187" t="s">
         <v>5</v>
       </c>
@@ -3494,8 +4174,32 @@
       <c r="H187" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="188" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="J187" t="s">
+        <v>5</v>
+      </c>
+      <c r="K187" t="s">
+        <v>16</v>
+      </c>
+      <c r="L187" s="6">
+        <v>100.482176745179</v>
+      </c>
+      <c r="M187" s="6">
+        <v>0.46790652713579101</v>
+      </c>
+      <c r="N187">
+        <v>4030</v>
+      </c>
+      <c r="O187" s="6">
+        <v>99.168023471561597</v>
+      </c>
+      <c r="P187" s="6">
+        <v>101.796330018795</v>
+      </c>
+      <c r="Q187" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="188" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A188" t="s">
         <v>6</v>
       </c>
@@ -3520,8 +4224,32 @@
       <c r="H188" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="189" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="J188" t="s">
+        <v>6</v>
+      </c>
+      <c r="K188" t="s">
+        <v>16</v>
+      </c>
+      <c r="L188" s="6">
+        <v>99.029510455848794</v>
+      </c>
+      <c r="M188" s="6">
+        <v>0.86352276695918195</v>
+      </c>
+      <c r="N188">
+        <v>4030</v>
+      </c>
+      <c r="O188" s="6">
+        <v>96.604237019317196</v>
+      </c>
+      <c r="P188" s="6">
+        <v>101.45478389237999</v>
+      </c>
+      <c r="Q188" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="189" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A189" t="s">
         <v>7</v>
       </c>
@@ -3546,8 +4274,32 @@
       <c r="H189" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="190" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="J189" t="s">
+        <v>7</v>
+      </c>
+      <c r="K189" t="s">
+        <v>16</v>
+      </c>
+      <c r="L189" s="6">
+        <v>95.9339848387296</v>
+      </c>
+      <c r="M189" s="6">
+        <v>0.88745224064907202</v>
+      </c>
+      <c r="N189">
+        <v>4030</v>
+      </c>
+      <c r="O189" s="6">
+        <v>93.441503542589899</v>
+      </c>
+      <c r="P189" s="6">
+        <v>98.426466134869301</v>
+      </c>
+      <c r="Q189" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="190" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A190" s="4" t="s">
         <v>16</v>
       </c>
@@ -3572,112 +4324,237 @@
       <c r="H190" s="4">
         <v>0.64173544755235801</v>
       </c>
-    </row>
-    <row r="191" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A191" s="23" t="s">
-        <v>16</v>
-      </c>
-      <c r="B191" s="23" t="s">
+      <c r="J190" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="K190" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="L190" s="5">
+        <v>0.727701646874654</v>
+      </c>
+      <c r="M190" s="5">
+        <v>0.61850510628438005</v>
+      </c>
+      <c r="N190" s="4">
+        <v>4030</v>
+      </c>
+      <c r="O190" s="5">
+        <v>-1.0094198999177699</v>
+      </c>
+      <c r="P190" s="5">
+        <v>2.4648231936670699</v>
+      </c>
+      <c r="Q190" s="29">
+        <f>IF(H190&lt;0.0001,"&lt;0.0001",IF(H190&lt;0.001,"&lt;0.001",IF(H190&lt;0.01,"&lt;0.01",ROUND(H190,3))))</f>
+        <v>0.64200000000000002</v>
+      </c>
+    </row>
+    <row r="191" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A191" t="s">
+        <v>16</v>
+      </c>
+      <c r="B191" t="s">
         <v>18</v>
       </c>
-      <c r="C191" s="24">
+      <c r="C191" s="6">
         <v>2.1803679362044401</v>
       </c>
-      <c r="D191" s="24">
+      <c r="D191" s="6">
         <v>0.97736330712431396</v>
       </c>
-      <c r="E191" s="23">
+      <c r="E191">
         <v>4030</v>
       </c>
-      <c r="F191" s="23">
+      <c r="F191">
         <v>-0.56463585212211698</v>
       </c>
-      <c r="G191" s="23">
+      <c r="G191">
         <v>4.9253717245309998</v>
       </c>
-      <c r="H191" s="23">
+      <c r="H191">
         <v>0.115105756443977</v>
       </c>
-    </row>
-    <row r="192" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A192" s="23" t="s">
-        <v>16</v>
-      </c>
-      <c r="B192" s="30" t="s">
+      <c r="J191" t="s">
+        <v>16</v>
+      </c>
+      <c r="K191" t="s">
+        <v>18</v>
+      </c>
+      <c r="L191" s="6">
+        <v>2.1803679362044401</v>
+      </c>
+      <c r="M191" s="6">
+        <v>0.97736330712431396</v>
+      </c>
+      <c r="N191">
+        <v>4030</v>
+      </c>
+      <c r="O191" s="6">
+        <v>-0.56463585212211698</v>
+      </c>
+      <c r="P191" s="6">
+        <v>4.9253717245309998</v>
+      </c>
+      <c r="Q191" s="30">
+        <f t="shared" ref="Q191:Q195" si="1">IF(H191&lt;0.0001,"&lt;0.0001",IF(H191&lt;0.001,"&lt;0.001",IF(H191&lt;0.01,"&lt;0.01",ROUND(H191,3))))</f>
+        <v>0.115</v>
+      </c>
+    </row>
+    <row r="192" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A192" t="s">
+        <v>16</v>
+      </c>
+      <c r="B192" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="C192" s="31">
+      <c r="C192" s="10">
         <v>5.2758935533235602</v>
       </c>
-      <c r="D192" s="24">
+      <c r="D192" s="6">
         <v>1.0113147151211801</v>
       </c>
-      <c r="E192" s="23">
+      <c r="E192">
         <v>4030</v>
       </c>
-      <c r="F192" s="23">
+      <c r="F192">
         <v>2.43553449343006</v>
       </c>
-      <c r="G192" s="23">
+      <c r="G192">
         <v>8.1162526132170694</v>
       </c>
-      <c r="H192" s="32">
+      <c r="H192" s="20">
         <v>1.16909659808595E-6</v>
       </c>
-    </row>
-    <row r="193" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A193" s="23" t="s">
-        <v>16</v>
-      </c>
-      <c r="B193" s="23" t="s">
+      <c r="J192" t="s">
+        <v>16</v>
+      </c>
+      <c r="K192" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="L192" s="10">
+        <v>5.2758935533235602</v>
+      </c>
+      <c r="M192" s="10">
+        <v>1.0113147151211801</v>
+      </c>
+      <c r="N192">
+        <v>4030</v>
+      </c>
+      <c r="O192" s="6">
+        <v>2.43553449343006</v>
+      </c>
+      <c r="P192" s="6">
+        <v>8.1162526132170694</v>
+      </c>
+      <c r="Q192" s="30" t="str">
+        <f t="shared" si="1"/>
+        <v>&lt;0.0001</v>
+      </c>
+    </row>
+    <row r="193" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A193" t="s">
+        <v>16</v>
+      </c>
+      <c r="B193" t="s">
         <v>20</v>
       </c>
-      <c r="C193" s="24">
+      <c r="C193" s="6">
         <v>1.4526662893297899</v>
       </c>
-      <c r="D193" s="24">
+      <c r="D193" s="6">
         <v>0.97072479511805299</v>
       </c>
-      <c r="E193" s="23">
+      <c r="E193">
         <v>4030</v>
       </c>
-      <c r="F193" s="23">
+      <c r="F193">
         <v>-1.27369270184385</v>
       </c>
-      <c r="G193" s="23">
+      <c r="G193">
         <v>4.1790252805034296</v>
       </c>
-      <c r="H193" s="23">
+      <c r="H193">
         <v>0.43968456364564301</v>
       </c>
-    </row>
-    <row r="194" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A194" s="23" t="s">
-        <v>16</v>
-      </c>
-      <c r="B194" s="30" t="s">
+      <c r="J193" t="s">
+        <v>16</v>
+      </c>
+      <c r="K193" t="s">
+        <v>20</v>
+      </c>
+      <c r="L193" s="6">
+        <v>1.4526662893297899</v>
+      </c>
+      <c r="M193" s="6">
+        <v>0.97072479511805299</v>
+      </c>
+      <c r="N193">
+        <v>4030</v>
+      </c>
+      <c r="O193" s="6">
+        <v>-1.27369270184385</v>
+      </c>
+      <c r="P193" s="6">
+        <v>4.1790252805034296</v>
+      </c>
+      <c r="Q193" s="30">
+        <f t="shared" si="1"/>
+        <v>0.44</v>
+      </c>
+    </row>
+    <row r="194" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A194" t="s">
+        <v>16</v>
+      </c>
+      <c r="B194" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="C194" s="31">
+      <c r="C194" s="10">
         <v>4.5481919064489098</v>
       </c>
-      <c r="D194" s="24">
+      <c r="D194" s="6">
         <v>0.98766410442744501</v>
       </c>
-      <c r="E194" s="23">
+      <c r="E194">
         <v>4030</v>
       </c>
-      <c r="F194" s="23">
+      <c r="F194">
         <v>1.77425749691551</v>
       </c>
-      <c r="G194" s="23">
+      <c r="G194">
         <v>7.3221263159823096</v>
       </c>
-      <c r="H194" s="32">
+      <c r="H194" s="20">
         <v>2.5240764506273499E-5</v>
       </c>
-    </row>
-    <row r="195" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="J194" t="s">
+        <v>16</v>
+      </c>
+      <c r="K194" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="L194" s="10">
+        <v>4.5481919064489098</v>
+      </c>
+      <c r="M194" s="10">
+        <v>0.98766410442744501</v>
+      </c>
+      <c r="N194">
+        <v>4030</v>
+      </c>
+      <c r="O194" s="6">
+        <v>1.77425749691551</v>
+      </c>
+      <c r="P194" s="6">
+        <v>7.3221263159823096</v>
+      </c>
+      <c r="Q194" s="30" t="str">
+        <f t="shared" si="1"/>
+        <v>&lt;0.0001</v>
+      </c>
+    </row>
+    <row r="195" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A195" s="7" t="s">
         <v>16</v>
       </c>
@@ -3702,24 +4579,49 @@
       <c r="H195" s="7">
         <v>4.3019465129833297E-2</v>
       </c>
-    </row>
-    <row r="196" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="J195" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="K195" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="L195" s="8">
+        <v>3.0955256171191201</v>
+      </c>
+      <c r="M195" s="8">
+        <v>1.17872817862512</v>
+      </c>
+      <c r="N195" s="7">
+        <v>4030</v>
+      </c>
+      <c r="O195" s="8">
+        <v>-0.215027676776606</v>
+      </c>
+      <c r="P195" s="8">
+        <v>6.4060789110148502</v>
+      </c>
+      <c r="Q195" s="31">
+        <f t="shared" si="1"/>
+        <v>4.2999999999999997E-2</v>
+      </c>
+    </row>
+    <row r="196" spans="1:17" x14ac:dyDescent="0.25">
       <c r="C196" s="6"/>
       <c r="D196" s="6"/>
     </row>
-    <row r="197" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B197" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="198" spans="1:8" x14ac:dyDescent="0.25">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="198" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B198" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="199" spans="1:8" x14ac:dyDescent="0.25">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="199" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B199" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
     </row>
   </sheetData>

--- a/eg_data/NHANES/PF/30_Waist.xlsx
+++ b/eg_data/NHANES/PF/30_Waist.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sadoh\OneDrive\Documents\GitHub\DietR\eg_data\NHANES\PF\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{09A3BE37-9021-4349-99AC-BC1F4E040E46}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{34159B7C-C96F-4D8D-85B3-9F434F8138DF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="22410" yWindow="-3150" windowWidth="24075" windowHeight="15540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="31365" yWindow="-3330" windowWidth="17820" windowHeight="15615" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Waist" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="434" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="434" uniqueCount="65">
   <si>
     <t>Plain means</t>
   </si>
@@ -228,6 +228,9 @@
   </si>
   <si>
     <t>F-value</t>
+  </si>
+  <si>
+    <t>FIBE/1000kcal</t>
   </si>
 </sst>
 </file>
@@ -335,7 +338,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="47">
+  <cellXfs count="45">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" quotePrefix="1" applyFill="1"/>
@@ -372,9 +375,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -393,9 +393,6 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
@@ -685,8 +682,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Q199"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A164" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J175" sqref="J175:Q196"/>
+    <sheetView tabSelected="1" topLeftCell="A131" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="Q162" sqref="Q162:Q168"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -695,7 +692,7 @@
     <col min="3" max="3" width="10" customWidth="1"/>
     <col min="9" max="9" width="11.85546875" customWidth="1"/>
     <col min="10" max="10" width="9.85546875" customWidth="1"/>
-    <col min="11" max="11" width="13.140625" customWidth="1"/>
+    <col min="11" max="11" width="14.42578125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
@@ -2888,7 +2885,7 @@
       <c r="A147" t="s">
         <v>49</v>
       </c>
-      <c r="J147" s="32" t="s">
+      <c r="J147" s="31" t="s">
         <v>62</v>
       </c>
     </row>
@@ -2906,22 +2903,22 @@
       <c r="F148" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="J148" s="33"/>
-      <c r="K148" s="34"/>
-      <c r="L148" s="34" t="s">
+      <c r="J148" s="32"/>
+      <c r="K148" s="33"/>
+      <c r="L148" s="33" t="s">
         <v>36</v>
       </c>
-      <c r="M148" s="35" t="s">
+      <c r="M148" s="34" t="s">
         <v>37</v>
       </c>
-      <c r="N148" s="34" t="s">
+      <c r="N148" s="33" t="s">
         <v>63</v>
       </c>
-      <c r="O148" s="34" t="s">
+      <c r="O148" s="33" t="s">
         <v>54</v>
       </c>
-      <c r="P148" s="33"/>
-      <c r="Q148" s="33"/>
+      <c r="P148" s="32"/>
+      <c r="Q148" s="32"/>
     </row>
     <row r="149" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B149" t="s">
@@ -2939,25 +2936,25 @@
       <c r="F149">
         <v>0</v>
       </c>
-      <c r="J149" s="33"/>
-      <c r="K149" s="33" t="s">
+      <c r="J149" s="32"/>
+      <c r="K149" s="32" t="s">
         <v>41</v>
       </c>
-      <c r="L149" s="36">
+      <c r="L149" s="35">
         <v>1269832.58484727</v>
       </c>
-      <c r="M149" s="33">
+      <c r="M149" s="32">
         <v>1</v>
       </c>
-      <c r="N149" s="37">
+      <c r="N149" s="36">
         <v>4721.3739273027504</v>
       </c>
-      <c r="O149" s="38" t="str">
-        <f>IF(F149&lt;0.0001,"&lt;0.0001",IF(F149&lt;0.001,"&lt;0.001",IF(F149&lt;0.01,"&lt;0.01",ROUND(F149,3))))</f>
+      <c r="O149" s="37" t="str">
+        <f t="shared" ref="O149:O155" si="0">IF(F149&lt;0.0001,"&lt;0.0001",IF(F149&lt;0.001,"&lt;0.001",IF(F149&lt;0.01,"&lt;0.01",ROUND(F149,3))))</f>
         <v>&lt;0.0001</v>
       </c>
-      <c r="P149" s="33"/>
-      <c r="Q149" s="33"/>
+      <c r="P149" s="32"/>
+      <c r="Q149" s="32"/>
     </row>
     <row r="150" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B150" t="s">
@@ -2975,25 +2972,25 @@
       <c r="F150" s="11">
         <v>1.7485773336846901E-6</v>
       </c>
-      <c r="J150" s="33"/>
-      <c r="K150" s="33" t="s">
+      <c r="J150" s="32"/>
+      <c r="K150" s="32" t="s">
         <v>2</v>
       </c>
-      <c r="L150" s="36">
+      <c r="L150" s="35">
         <v>7965.3113341715698</v>
       </c>
-      <c r="M150" s="33">
+      <c r="M150" s="32">
         <v>3</v>
       </c>
-      <c r="N150" s="37">
+      <c r="N150" s="36">
         <v>9.8719609983153997</v>
       </c>
-      <c r="O150" s="38" t="str">
-        <f>IF(F150&lt;0.0001,"&lt;0.0001",IF(F150&lt;0.001,"&lt;0.001",IF(F150&lt;0.01,"&lt;0.01",ROUND(F150,3))))</f>
+      <c r="O150" s="37" t="str">
+        <f t="shared" si="0"/>
         <v>&lt;0.0001</v>
       </c>
-      <c r="P150" s="33"/>
-      <c r="Q150" s="33"/>
+      <c r="P150" s="32"/>
+      <c r="Q150" s="32"/>
     </row>
     <row r="151" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B151" t="s">
@@ -3011,25 +3008,25 @@
       <c r="F151" s="11">
         <v>1.2121235029963401E-53</v>
       </c>
-      <c r="J151" s="33"/>
-      <c r="K151" s="33" t="s">
+      <c r="J151" s="32"/>
+      <c r="K151" s="32" t="s">
         <v>42</v>
       </c>
-      <c r="L151" s="36">
+      <c r="L151" s="35">
         <v>65878.830343513706</v>
       </c>
-      <c r="M151" s="33">
+      <c r="M151" s="32">
         <v>1</v>
       </c>
-      <c r="N151" s="37">
+      <c r="N151" s="36">
         <v>244.944566438637</v>
       </c>
-      <c r="O151" s="38" t="str">
-        <f>IF(F151&lt;0.0001,"&lt;0.0001",IF(F151&lt;0.001,"&lt;0.001",IF(F151&lt;0.01,"&lt;0.01",ROUND(F151,3))))</f>
+      <c r="O151" s="37" t="str">
+        <f t="shared" si="0"/>
         <v>&lt;0.0001</v>
       </c>
-      <c r="P151" s="33"/>
-      <c r="Q151" s="33"/>
+      <c r="P151" s="32"/>
+      <c r="Q151" s="32"/>
     </row>
     <row r="152" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B152" t="s">
@@ -3047,25 +3044,25 @@
       <c r="F152">
         <v>1.2909230753858501E-2</v>
       </c>
-      <c r="J152" s="33"/>
-      <c r="K152" s="33" t="s">
+      <c r="J152" s="32"/>
+      <c r="K152" s="32" t="s">
         <v>43</v>
       </c>
-      <c r="L152" s="36">
+      <c r="L152" s="35">
         <v>1664.0238375321501</v>
       </c>
-      <c r="M152" s="33">
+      <c r="M152" s="32">
         <v>1</v>
       </c>
-      <c r="N152" s="37">
+      <c r="N152" s="36">
         <v>6.18701933993884</v>
       </c>
-      <c r="O152" s="38">
-        <f>IF(F152&lt;0.0001,"&lt;0.0001",IF(F152&lt;0.001,"&lt;0.001",IF(F152&lt;0.01,"&lt;0.01",ROUND(F152,3))))</f>
+      <c r="O152" s="37">
+        <f t="shared" si="0"/>
         <v>1.2999999999999999E-2</v>
       </c>
-      <c r="P152" s="33"/>
-      <c r="Q152" s="33"/>
+      <c r="P152" s="32"/>
+      <c r="Q152" s="32"/>
     </row>
     <row r="153" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B153" s="18" t="s">
@@ -3083,25 +3080,25 @@
       <c r="F153" s="18">
         <v>0.122323403277461</v>
       </c>
-      <c r="J153" s="33"/>
-      <c r="K153" s="33" t="s">
+      <c r="J153" s="32"/>
+      <c r="K153" s="32" t="s">
         <v>44</v>
       </c>
-      <c r="L153" s="36">
+      <c r="L153" s="35">
         <v>642.34855975257199</v>
       </c>
-      <c r="M153" s="33">
+      <c r="M153" s="32">
         <v>1</v>
       </c>
-      <c r="N153" s="37">
+      <c r="N153" s="36">
         <v>2.38832093178728</v>
       </c>
-      <c r="O153" s="38">
-        <f>IF(F153&lt;0.0001,"&lt;0.0001",IF(F153&lt;0.001,"&lt;0.001",IF(F153&lt;0.01,"&lt;0.01",ROUND(F153,3))))</f>
+      <c r="O153" s="37">
+        <f t="shared" si="0"/>
         <v>0.122</v>
       </c>
-      <c r="P153" s="33"/>
-      <c r="Q153" s="33"/>
+      <c r="P153" s="32"/>
+      <c r="Q153" s="32"/>
     </row>
     <row r="154" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B154" t="s">
@@ -3119,25 +3116,25 @@
       <c r="F154">
         <v>6.8652276616774303E-4</v>
       </c>
-      <c r="J154" s="33"/>
-      <c r="K154" s="33" t="s">
-        <v>47</v>
-      </c>
-      <c r="L154" s="36">
+      <c r="J154" s="32"/>
+      <c r="K154" s="32" t="s">
+        <v>64</v>
+      </c>
+      <c r="L154" s="35">
         <v>3104.6221146958401</v>
       </c>
-      <c r="M154" s="33">
+      <c r="M154" s="32">
         <v>1</v>
       </c>
-      <c r="N154" s="37">
+      <c r="N154" s="36">
         <v>11.5433184510819</v>
       </c>
-      <c r="O154" s="38" t="str">
-        <f>IF(F154&lt;0.0001,"&lt;0.0001",IF(F154&lt;0.001,"&lt;0.001",IF(F154&lt;0.01,"&lt;0.01",ROUND(F154,3))))</f>
+      <c r="O154" s="37" t="str">
+        <f t="shared" si="0"/>
         <v>&lt;0.001</v>
       </c>
-      <c r="P154" s="33"/>
-      <c r="Q154" s="33"/>
+      <c r="P154" s="32"/>
+      <c r="Q154" s="32"/>
     </row>
     <row r="155" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B155" t="s">
@@ -3155,25 +3152,25 @@
       <c r="F155">
         <v>1.45510313437961E-2</v>
       </c>
-      <c r="J155" s="33"/>
-      <c r="K155" s="33" t="s">
+      <c r="J155" s="32"/>
+      <c r="K155" s="32" t="s">
         <v>56</v>
       </c>
-      <c r="L155" s="36">
+      <c r="L155" s="35">
         <v>1607.05348319584</v>
       </c>
-      <c r="M155" s="33">
+      <c r="M155" s="32">
         <v>1</v>
       </c>
-      <c r="N155" s="37">
+      <c r="N155" s="36">
         <v>5.9751974440429896</v>
       </c>
-      <c r="O155" s="38">
-        <f>IF(F155&lt;0.0001,"&lt;0.0001",IF(F155&lt;0.001,"&lt;0.001",IF(F155&lt;0.01,"&lt;0.01",ROUND(F155,3))))</f>
+      <c r="O155" s="37">
+        <f t="shared" si="0"/>
         <v>1.4999999999999999E-2</v>
       </c>
-      <c r="P155" s="33"/>
-      <c r="Q155" s="33"/>
+      <c r="P155" s="32"/>
+      <c r="Q155" s="32"/>
     </row>
     <row r="156" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B156" s="3" t="s">
@@ -3191,14 +3188,14 @@
       <c r="F156" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="J156" s="33"/>
-      <c r="K156" s="34" t="s">
+      <c r="J156" s="32"/>
+      <c r="K156" s="33" t="s">
         <v>46</v>
       </c>
-      <c r="L156" s="39">
+      <c r="L156" s="38">
         <v>1083615.8209719299</v>
       </c>
-      <c r="M156" s="34">
+      <c r="M156" s="33">
         <v>4029</v>
       </c>
       <c r="N156" s="34" t="s">
@@ -3207,18 +3204,18 @@
       <c r="O156" s="34" t="s">
         <v>40</v>
       </c>
-      <c r="P156" s="33"/>
-      <c r="Q156" s="33"/>
+      <c r="P156" s="32"/>
+      <c r="Q156" s="32"/>
     </row>
     <row r="157" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="J157" s="33"/>
-      <c r="K157" s="33"/>
-      <c r="L157" s="33"/>
-      <c r="M157" s="33"/>
-      <c r="N157" s="33"/>
-      <c r="O157" s="33"/>
-      <c r="P157" s="33"/>
-      <c r="Q157" s="33"/>
+      <c r="J157" s="32"/>
+      <c r="K157" s="32"/>
+      <c r="L157" s="32"/>
+      <c r="M157" s="32"/>
+      <c r="N157" s="32"/>
+      <c r="O157" s="32"/>
+      <c r="P157" s="32"/>
+      <c r="Q157" s="32"/>
     </row>
     <row r="158" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A158" s="3" t="s">
@@ -3245,28 +3242,28 @@
       <c r="H158" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="J158" s="34" t="s">
+      <c r="J158" s="33" t="s">
         <v>2</v>
       </c>
-      <c r="K158" s="34" t="s">
+      <c r="K158" s="33" t="s">
         <v>60</v>
       </c>
-      <c r="L158" s="34" t="s">
+      <c r="L158" s="33" t="s">
         <v>61</v>
       </c>
-      <c r="M158" s="34" t="s">
+      <c r="M158" s="33" t="s">
         <v>12</v>
       </c>
-      <c r="N158" s="34" t="s">
+      <c r="N158" s="33" t="s">
         <v>13</v>
       </c>
-      <c r="O158" s="34" t="s">
+      <c r="O158" s="33" t="s">
         <v>14</v>
       </c>
-      <c r="P158" s="34" t="s">
+      <c r="P158" s="33" t="s">
         <v>15</v>
       </c>
-      <c r="Q158" s="34" t="s">
+      <c r="Q158" s="33" t="s">
         <v>54</v>
       </c>
     </row>
@@ -3295,28 +3292,28 @@
       <c r="H159" t="s">
         <v>16</v>
       </c>
-      <c r="J159" s="33" t="s">
+      <c r="J159" s="32" t="s">
         <v>4</v>
       </c>
-      <c r="K159" s="33" t="s">
-        <v>16</v>
-      </c>
-      <c r="L159" s="37">
+      <c r="K159" s="32" t="s">
+        <v>16</v>
+      </c>
+      <c r="L159" s="36">
         <v>101.232510197693</v>
       </c>
-      <c r="M159" s="37">
+      <c r="M159" s="36">
         <v>0.38896161062031298</v>
       </c>
-      <c r="N159" s="33">
+      <c r="N159" s="32">
         <v>4029</v>
       </c>
-      <c r="O159" s="37">
+      <c r="O159" s="36">
         <v>100.14007994895501</v>
       </c>
-      <c r="P159" s="37">
+      <c r="P159" s="36">
         <v>102.32494044643001</v>
       </c>
-      <c r="Q159" s="33" t="s">
+      <c r="Q159" s="32" t="s">
         <v>16</v>
       </c>
     </row>
@@ -3345,28 +3342,28 @@
       <c r="H160" t="s">
         <v>16</v>
       </c>
-      <c r="J160" s="33" t="s">
+      <c r="J160" s="32" t="s">
         <v>5</v>
       </c>
-      <c r="K160" s="33" t="s">
-        <v>16</v>
-      </c>
-      <c r="L160" s="37">
+      <c r="K160" s="32" t="s">
+        <v>16</v>
+      </c>
+      <c r="L160" s="36">
         <v>100.474633616999</v>
       </c>
-      <c r="M160" s="37">
+      <c r="M160" s="36">
         <v>0.46785141338165298</v>
       </c>
-      <c r="N160" s="33">
+      <c r="N160" s="32">
         <v>4029</v>
       </c>
-      <c r="O160" s="37">
+      <c r="O160" s="36">
         <v>99.160634955080496</v>
       </c>
-      <c r="P160" s="37">
+      <c r="P160" s="36">
         <v>101.78863227891701</v>
       </c>
-      <c r="Q160" s="33" t="s">
+      <c r="Q160" s="32" t="s">
         <v>16</v>
       </c>
     </row>
@@ -3395,28 +3392,28 @@
       <c r="H161" t="s">
         <v>16</v>
       </c>
-      <c r="J161" s="33" t="s">
+      <c r="J161" s="32" t="s">
         <v>6</v>
       </c>
-      <c r="K161" s="33" t="s">
-        <v>16</v>
-      </c>
-      <c r="L161" s="37">
+      <c r="K161" s="32" t="s">
+        <v>16</v>
+      </c>
+      <c r="L161" s="36">
         <v>98.975340362741704</v>
       </c>
-      <c r="M161" s="37">
+      <c r="M161" s="36">
         <v>0.86408530912331705</v>
       </c>
-      <c r="N161" s="33">
+      <c r="N161" s="32">
         <v>4029</v>
       </c>
-      <c r="O161" s="37">
+      <c r="O161" s="36">
         <v>96.548486649156999</v>
       </c>
-      <c r="P161" s="37">
+      <c r="P161" s="36">
         <v>101.402194076326</v>
       </c>
-      <c r="Q161" s="33" t="s">
+      <c r="Q161" s="32" t="s">
         <v>16</v>
       </c>
     </row>
@@ -3445,28 +3442,28 @@
       <c r="H162" t="s">
         <v>16</v>
       </c>
-      <c r="J162" s="33" t="s">
+      <c r="J162" s="32" t="s">
         <v>7</v>
       </c>
-      <c r="K162" s="33" t="s">
-        <v>16</v>
-      </c>
-      <c r="L162" s="37">
+      <c r="K162" s="32" t="s">
+        <v>16</v>
+      </c>
+      <c r="L162" s="36">
         <v>95.8356234125404</v>
       </c>
-      <c r="M162" s="37">
+      <c r="M162" s="36">
         <v>0.88957923079615797</v>
       </c>
-      <c r="N162" s="33">
+      <c r="N162" s="32">
         <v>4029</v>
       </c>
-      <c r="O162" s="37">
+      <c r="O162" s="36">
         <v>93.337167951035298</v>
       </c>
-      <c r="P162" s="37">
+      <c r="P162" s="36">
         <v>98.334078874045602</v>
       </c>
-      <c r="Q162" s="33" t="s">
+      <c r="Q162" s="32" t="s">
         <v>16</v>
       </c>
     </row>
@@ -3495,28 +3492,28 @@
       <c r="H163" s="4">
         <v>0.61097925553195997</v>
       </c>
-      <c r="J163" s="40" t="s">
-        <v>16</v>
-      </c>
-      <c r="K163" s="40" t="s">
+      <c r="J163" s="39" t="s">
+        <v>16</v>
+      </c>
+      <c r="K163" s="39" t="s">
         <v>17</v>
       </c>
-      <c r="L163" s="41">
+      <c r="L163" s="40">
         <v>0.75787658069405806</v>
       </c>
-      <c r="M163" s="41">
+      <c r="M163" s="40">
         <v>0.61870676944833902</v>
       </c>
-      <c r="N163" s="40">
+      <c r="N163" s="39">
         <v>4029</v>
       </c>
-      <c r="O163" s="41">
+      <c r="O163" s="40">
         <v>-0.979811591066582</v>
       </c>
-      <c r="P163" s="41">
+      <c r="P163" s="40">
         <v>2.4955647524547002</v>
       </c>
-      <c r="Q163" s="42">
+      <c r="Q163" s="41">
         <f>IF(H163&lt;0.0001,"&lt;0.0001",IF(H163&lt;0.001,"&lt;0.001",IF(H163&lt;0.01,"&lt;0.01",ROUND(H163,3))))</f>
         <v>0.61099999999999999</v>
       </c>
@@ -3546,29 +3543,29 @@
       <c r="H164">
         <v>9.6597052715799103E-2</v>
       </c>
-      <c r="J164" s="33" t="s">
-        <v>16</v>
-      </c>
-      <c r="K164" s="33" t="s">
+      <c r="J164" s="32" t="s">
+        <v>16</v>
+      </c>
+      <c r="K164" s="32" t="s">
         <v>18</v>
       </c>
-      <c r="L164" s="37">
+      <c r="L164" s="36">
         <v>2.2571698349509699</v>
       </c>
-      <c r="M164" s="37">
+      <c r="M164" s="36">
         <v>0.97845787384566696</v>
       </c>
-      <c r="N164" s="33">
+      <c r="N164" s="32">
         <v>4029</v>
       </c>
-      <c r="O164" s="37">
+      <c r="O164" s="36">
         <v>-0.49090850830634702</v>
       </c>
-      <c r="P164" s="37">
+      <c r="P164" s="36">
         <v>5.0052481782082898</v>
       </c>
-      <c r="Q164" s="43">
-        <f t="shared" ref="Q164:Q168" si="0">IF(H164&lt;0.0001,"&lt;0.0001",IF(H164&lt;0.001,"&lt;0.001",IF(H164&lt;0.01,"&lt;0.01",ROUND(H164,3))))</f>
+      <c r="Q164" s="37">
+        <f t="shared" ref="Q164:Q168" si="1">IF(H164&lt;0.0001,"&lt;0.0001",IF(H164&lt;0.001,"&lt;0.001",IF(H164&lt;0.01,"&lt;0.01",ROUND(H164,3))))</f>
         <v>9.7000000000000003E-2</v>
       </c>
     </row>
@@ -3597,29 +3594,29 @@
       <c r="H165" s="20">
         <v>6.7580728035920899E-7</v>
       </c>
-      <c r="J165" s="33" t="s">
-        <v>16</v>
-      </c>
-      <c r="K165" s="33" t="s">
+      <c r="J165" s="32" t="s">
+        <v>16</v>
+      </c>
+      <c r="K165" s="32" t="s">
         <v>19</v>
       </c>
-      <c r="L165" s="37">
+      <c r="L165" s="36">
         <v>5.3968867851522599</v>
       </c>
-      <c r="M165" s="37">
+      <c r="M165" s="36">
         <v>1.0141670475670601</v>
       </c>
-      <c r="N165" s="33">
+      <c r="N165" s="32">
         <v>4029</v>
       </c>
-      <c r="O165" s="37">
+      <c r="O165" s="36">
         <v>2.5485163296002402</v>
       </c>
-      <c r="P165" s="37">
+      <c r="P165" s="36">
         <v>8.2452572407042801</v>
       </c>
-      <c r="Q165" s="43" t="str">
-        <f t="shared" si="0"/>
+      <c r="Q165" s="37" t="str">
+        <f t="shared" si="1"/>
         <v>&lt;0.0001</v>
       </c>
     </row>
@@ -3648,29 +3645,29 @@
       <c r="H166">
         <v>0.411206108556673</v>
       </c>
-      <c r="J166" s="33" t="s">
-        <v>16</v>
-      </c>
-      <c r="K166" s="33" t="s">
+      <c r="J166" s="32" t="s">
+        <v>16</v>
+      </c>
+      <c r="K166" s="32" t="s">
         <v>20</v>
       </c>
-      <c r="L166" s="37">
+      <c r="L166" s="36">
         <v>1.4992932542569199</v>
       </c>
-      <c r="M166" s="37">
+      <c r="M166" s="36">
         <v>0.97102647345812498</v>
       </c>
-      <c r="N166" s="33">
+      <c r="N166" s="32">
         <v>4029</v>
       </c>
-      <c r="O166" s="37">
+      <c r="O166" s="36">
         <v>-1.2279133979333099</v>
       </c>
-      <c r="P166" s="37">
+      <c r="P166" s="36">
         <v>4.22649990644714</v>
       </c>
-      <c r="Q166" s="43">
-        <f t="shared" si="0"/>
+      <c r="Q166" s="37">
+        <f t="shared" si="1"/>
         <v>0.41099999999999998</v>
       </c>
     </row>
@@ -3699,29 +3696,29 @@
       <c r="H167" s="20">
         <v>1.6834560508494099E-5</v>
       </c>
-      <c r="J167" s="33" t="s">
-        <v>16</v>
-      </c>
-      <c r="K167" s="33" t="s">
+      <c r="J167" s="32" t="s">
+        <v>16</v>
+      </c>
+      <c r="K167" s="32" t="s">
         <v>21</v>
       </c>
-      <c r="L167" s="37">
+      <c r="L167" s="36">
         <v>4.6390102044581996</v>
       </c>
-      <c r="M167" s="37">
+      <c r="M167" s="36">
         <v>0.98924107585250298</v>
       </c>
-      <c r="N167" s="33">
+      <c r="N167" s="32">
         <v>4029</v>
       </c>
-      <c r="O167" s="37">
+      <c r="O167" s="36">
         <v>1.8606463632780199</v>
       </c>
-      <c r="P167" s="37">
+      <c r="P167" s="36">
         <v>7.4173740456383799</v>
       </c>
-      <c r="Q167" s="43" t="str">
-        <f t="shared" si="0"/>
+      <c r="Q167" s="37" t="str">
+        <f t="shared" si="1"/>
         <v>&lt;0.0001</v>
       </c>
     </row>
@@ -3750,29 +3747,29 @@
       <c r="H168" s="7">
         <v>3.8861780561662701E-2</v>
       </c>
-      <c r="J168" s="44" t="s">
-        <v>16</v>
-      </c>
-      <c r="K168" s="44" t="s">
+      <c r="J168" s="42" t="s">
+        <v>16</v>
+      </c>
+      <c r="K168" s="42" t="s">
         <v>22</v>
       </c>
-      <c r="L168" s="45">
+      <c r="L168" s="43">
         <v>3.1397169502012798</v>
       </c>
-      <c r="M168" s="45">
+      <c r="M168" s="43">
         <v>1.1788720528269201</v>
       </c>
-      <c r="N168" s="44">
+      <c r="N168" s="42">
         <v>4029</v>
       </c>
-      <c r="O168" s="45">
+      <c r="O168" s="43">
         <v>-0.171240878889621</v>
       </c>
-      <c r="P168" s="45">
+      <c r="P168" s="43">
         <v>6.4506747792921901</v>
       </c>
-      <c r="Q168" s="46">
-        <f t="shared" si="0"/>
+      <c r="Q168" s="44">
+        <f t="shared" si="1"/>
         <v>3.9E-2</v>
       </c>
     </row>
@@ -3816,7 +3813,7 @@
         <v>38</v>
       </c>
       <c r="O175" s="3" t="s">
-        <v>39</v>
+        <v>54</v>
       </c>
     </row>
     <row r="176" spans="1:17" x14ac:dyDescent="0.25">
@@ -3848,7 +3845,7 @@
         <v>7416.2457534920304</v>
       </c>
       <c r="O176" s="24" t="str">
-        <f>IF(F176&lt;0.0001,"&lt;0.0001",IF(F176&lt;0.001,"&lt;0.001",IF(F176&lt;0.01,"&lt;0.01",ROUND(F176,3))))</f>
+        <f t="shared" ref="O176:O181" si="2">IF(F176&lt;0.0001,"&lt;0.0001",IF(F176&lt;0.001,"&lt;0.001",IF(F176&lt;0.01,"&lt;0.01",ROUND(F176,3))))</f>
         <v>&lt;0.0001</v>
       </c>
     </row>
@@ -3881,7 +3878,7 @@
         <v>9.4870978084553297</v>
       </c>
       <c r="O177" s="24" t="str">
-        <f>IF(F177&lt;0.0001,"&lt;0.0001",IF(F177&lt;0.001,"&lt;0.001",IF(F177&lt;0.01,"&lt;0.01",ROUND(F177,3))))</f>
+        <f t="shared" si="2"/>
         <v>&lt;0.0001</v>
       </c>
     </row>
@@ -3914,7 +3911,7 @@
         <v>242.57135587300999</v>
       </c>
       <c r="O178" s="24" t="str">
-        <f>IF(F178&lt;0.0001,"&lt;0.0001",IF(F178&lt;0.001,"&lt;0.001",IF(F178&lt;0.01,"&lt;0.01",ROUND(F178,3))))</f>
+        <f t="shared" si="2"/>
         <v>&lt;0.0001</v>
       </c>
     </row>
@@ -3947,7 +3944,7 @@
         <v>8.9628725938433895</v>
       </c>
       <c r="O179" s="24" t="str">
-        <f>IF(F179&lt;0.0001,"&lt;0.0001",IF(F179&lt;0.001,"&lt;0.001",IF(F179&lt;0.01,"&lt;0.01",ROUND(F179,3))))</f>
+        <f t="shared" si="2"/>
         <v>&lt;0.01</v>
       </c>
     </row>
@@ -3968,7 +3965,7 @@
         <v>1.8218832461452199E-4</v>
       </c>
       <c r="K180" t="s">
-        <v>47</v>
+        <v>64</v>
       </c>
       <c r="L180" s="25">
         <v>3775.4039348363899</v>
@@ -3980,7 +3977,7 @@
         <v>14.032523143415499</v>
       </c>
       <c r="O180" s="24" t="str">
-        <f>IF(F180&lt;0.0001,"&lt;0.0001",IF(F180&lt;0.001,"&lt;0.001",IF(F180&lt;0.01,"&lt;0.01",ROUND(F180,3))))</f>
+        <f t="shared" si="2"/>
         <v>&lt;0.001</v>
       </c>
     </row>
@@ -4013,7 +4010,7 @@
         <v>12.3527221947892</v>
       </c>
       <c r="O181" s="24" t="str">
-        <f>IF(F181&lt;0.0001,"&lt;0.0001",IF(F181&lt;0.001,"&lt;0.001",IF(F181&lt;0.01,"&lt;0.01",ROUND(F181,3))))</f>
+        <f t="shared" si="2"/>
         <v>&lt;0.001</v>
       </c>
     </row>
@@ -4396,8 +4393,8 @@
       <c r="P191" s="6">
         <v>4.9253717245309998</v>
       </c>
-      <c r="Q191" s="30">
-        <f t="shared" ref="Q191:Q195" si="1">IF(H191&lt;0.0001,"&lt;0.0001",IF(H191&lt;0.001,"&lt;0.001",IF(H191&lt;0.01,"&lt;0.01",ROUND(H191,3))))</f>
+      <c r="Q191" s="24">
+        <f t="shared" ref="Q191:Q195" si="3">IF(H191&lt;0.0001,"&lt;0.0001",IF(H191&lt;0.001,"&lt;0.001",IF(H191&lt;0.01,"&lt;0.01",ROUND(H191,3))))</f>
         <v>0.115</v>
       </c>
     </row>
@@ -4447,8 +4444,8 @@
       <c r="P192" s="6">
         <v>8.1162526132170694</v>
       </c>
-      <c r="Q192" s="30" t="str">
-        <f t="shared" si="1"/>
+      <c r="Q192" s="24" t="str">
+        <f t="shared" si="3"/>
         <v>&lt;0.0001</v>
       </c>
     </row>
@@ -4498,8 +4495,8 @@
       <c r="P193" s="6">
         <v>4.1790252805034296</v>
       </c>
-      <c r="Q193" s="30">
-        <f t="shared" si="1"/>
+      <c r="Q193" s="24">
+        <f t="shared" si="3"/>
         <v>0.44</v>
       </c>
     </row>
@@ -4549,8 +4546,8 @@
       <c r="P194" s="6">
         <v>7.3221263159823096</v>
       </c>
-      <c r="Q194" s="30" t="str">
-        <f t="shared" si="1"/>
+      <c r="Q194" s="24" t="str">
+        <f t="shared" si="3"/>
         <v>&lt;0.0001</v>
       </c>
     </row>
@@ -4600,8 +4597,8 @@
       <c r="P195" s="8">
         <v>6.4060789110148502</v>
       </c>
-      <c r="Q195" s="31">
-        <f t="shared" si="1"/>
+      <c r="Q195" s="30">
+        <f t="shared" si="3"/>
         <v>4.2999999999999997E-2</v>
       </c>
     </row>

--- a/eg_data/NHANES/PF/30_Waist.xlsx
+++ b/eg_data/NHANES/PF/30_Waist.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26227"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sadoh\OneDrive\Documents\GitHub\DietR\eg_data\NHANES\PF\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{34159B7C-C96F-4D8D-85B3-9F434F8138DF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7A889112-33CB-4F40-88A9-80DC38540CE8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="31365" yWindow="-3330" windowWidth="17820" windowHeight="15615" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="570" yWindow="180" windowWidth="18390" windowHeight="10425" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Waist" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="434" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="452" uniqueCount="67">
   <si>
     <t>Plain means</t>
   </si>
@@ -231,6 +231,12 @@
   </si>
   <si>
     <t>FIBE/1000kcal</t>
+  </si>
+  <si>
+    <t>Waist</t>
+  </si>
+  <si>
+    <t>&lt;0.0001</t>
   </si>
 </sst>
 </file>
@@ -415,6 +421,977 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.217186428229593"/>
+          <c:y val="6.7276620684465105E-2"/>
+          <c:w val="0.74713790216847809"/>
+          <c:h val="0.76845122306270808"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Waist!$T$185</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Waist</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:errBars>
+            <c:errBarType val="both"/>
+            <c:errValType val="cust"/>
+            <c:noEndCap val="0"/>
+            <c:plus>
+              <c:numRef>
+                <c:f>Waist!$D$186:$D$189</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="4"/>
+                  <c:pt idx="0">
+                    <c:v>0.38875277517771301</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>0.46790652713579101</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>0.86352276695918195</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>0.88745224064907202</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:plus>
+            <c:minus>
+              <c:numRef>
+                <c:f>Waist!$D$186:$D$189</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="4"/>
+                  <c:pt idx="0">
+                    <c:v>0.38875277517771301</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>0.46790652713579101</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>0.86352276695918195</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>0.88745224064907202</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:minus>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:errBars>
+          <c:cat>
+            <c:strRef>
+              <c:f>Waist!$S$186:$S$189</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>DivNA</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Div0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Div1</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Div2</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Waist!$T$186:$T$189</c:f>
+              <c:numCache>
+                <c:formatCode>0</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>101.209878392053</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>100.482176745179</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>99.029510455848794</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>95.9339848387296</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-8659-4A14-8FB9-63C2D14C004A}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="149"/>
+        <c:overlap val="-45"/>
+        <c:axId val="477875424"/>
+        <c:axId val="477873624"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="477875424"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="bg1">
+                <a:lumMod val="65000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1600" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="477873624"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="477873624"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:numFmt formatCode="0" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1600" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="477875424"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="bg1">
+              <a:lumMod val="65000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:noFill/>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr sz="1600">
+          <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+          <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+        </a:defRPr>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+  <c:userShapes r:id="rId3"/>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>550333</xdr:colOff>
+      <xdr:row>176</xdr:row>
+      <xdr:rowOff>1</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>169334</xdr:colOff>
+      <xdr:row>190</xdr:row>
+      <xdr:rowOff>52917</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AE7405E0-8F3D-0A59-0DF4-74E398A0D401}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:userShapes xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart">
+  <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
+    <cdr:from>
+      <cdr:x>0</cdr:x>
+      <cdr:y>0.01167</cdr:y>
+    </cdr:from>
+    <cdr:to>
+      <cdr:x>0.1</cdr:x>
+      <cdr:y>0.96017</cdr:y>
+    </cdr:to>
+    <cdr:sp macro="" textlink="">
+      <cdr:nvSpPr>
+        <cdr:cNvPr id="2" name="TextBox 1">
+          <a:extLst xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{855F7DC9-3DD0-48DB-EA7D-4FA42F8645E7}"/>
+            </a:ext>
+          </a:extLst>
+        </cdr:cNvPr>
+        <cdr:cNvSpPr txBox="1"/>
+      </cdr:nvSpPr>
+      <cdr:spPr>
+        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" rot="16200000">
+          <a:off x="-1094124" y="1125873"/>
+          <a:ext cx="2579832" cy="391583"/>
+        </a:xfrm>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </cdr:spPr>
+      <cdr:txBody>
+        <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" vertOverflow="clip" wrap="none" rtlCol="0"/>
+        <a:lstStyle xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+        <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:r>
+            <a:rPr lang="en-US" sz="1600">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+              <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+            </a:rPr>
+            <a:t>Waist circumference (cm)</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1050">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="65000"/>
+                <a:lumOff val="35000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+            <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+          </a:endParaRPr>
+        </a:p>
+      </cdr:txBody>
+    </cdr:sp>
+  </cdr:relSizeAnchor>
+</c:userShapes>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -680,10 +1657,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:Q199"/>
+  <dimension ref="A1:V199"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A131" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="Q162" sqref="Q162:Q168"/>
+    <sheetView tabSelected="1" topLeftCell="D170" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="S177" sqref="S177"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3849,7 +4826,7 @@
         <v>&lt;0.0001</v>
       </c>
     </row>
-    <row r="177" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:22" x14ac:dyDescent="0.25">
       <c r="B177" t="s">
         <v>2</v>
       </c>
@@ -3882,7 +4859,7 @@
         <v>&lt;0.0001</v>
       </c>
     </row>
-    <row r="178" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:22" x14ac:dyDescent="0.25">
       <c r="B178" t="s">
         <v>42</v>
       </c>
@@ -3915,7 +4892,7 @@
         <v>&lt;0.0001</v>
       </c>
     </row>
-    <row r="179" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:22" x14ac:dyDescent="0.25">
       <c r="B179" t="s">
         <v>43</v>
       </c>
@@ -3948,7 +4925,7 @@
         <v>&lt;0.01</v>
       </c>
     </row>
-    <row r="180" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:22" x14ac:dyDescent="0.25">
       <c r="B180" t="s">
         <v>47</v>
       </c>
@@ -3981,7 +4958,7 @@
         <v>&lt;0.001</v>
       </c>
     </row>
-    <row r="181" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:22" x14ac:dyDescent="0.25">
       <c r="B181" t="s">
         <v>56</v>
       </c>
@@ -4014,7 +4991,7 @@
         <v>&lt;0.001</v>
       </c>
     </row>
-    <row r="182" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:22" x14ac:dyDescent="0.25">
       <c r="B182" s="3" t="s">
         <v>46</v>
       </c>
@@ -4046,7 +5023,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="185" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A185" s="3" t="s">
         <v>2</v>
       </c>
@@ -4095,8 +5072,14 @@
       <c r="Q185" s="3" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="186" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="S185" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="T185" s="3" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="186" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A186" t="s">
         <v>4</v>
       </c>
@@ -4145,8 +5128,14 @@
       <c r="Q186" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="187" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="S186" t="s">
+        <v>4</v>
+      </c>
+      <c r="T186" s="25">
+        <v>101.209878392053</v>
+      </c>
+    </row>
+    <row r="187" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A187" t="s">
         <v>5</v>
       </c>
@@ -4195,8 +5184,14 @@
       <c r="Q187" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="188" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="S187" t="s">
+        <v>5</v>
+      </c>
+      <c r="T187" s="25">
+        <v>100.482176745179</v>
+      </c>
+    </row>
+    <row r="188" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A188" t="s">
         <v>6</v>
       </c>
@@ -4245,8 +5240,14 @@
       <c r="Q188" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="189" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="S188" t="s">
+        <v>6</v>
+      </c>
+      <c r="T188" s="25">
+        <v>99.029510455848794</v>
+      </c>
+    </row>
+    <row r="189" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A189" t="s">
         <v>7</v>
       </c>
@@ -4295,8 +5296,14 @@
       <c r="Q189" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="190" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="S189" t="s">
+        <v>7</v>
+      </c>
+      <c r="T189" s="25">
+        <v>95.9339848387296</v>
+      </c>
+    </row>
+    <row r="190" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A190" s="4" t="s">
         <v>16</v>
       </c>
@@ -4347,7 +5354,7 @@
         <v>0.64200000000000002</v>
       </c>
     </row>
-    <row r="191" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A191" t="s">
         <v>16</v>
       </c>
@@ -4397,8 +5404,20 @@
         <f t="shared" ref="Q191:Q195" si="3">IF(H191&lt;0.0001,"&lt;0.0001",IF(H191&lt;0.001,"&lt;0.001",IF(H191&lt;0.01,"&lt;0.01",ROUND(H191,3))))</f>
         <v>0.115</v>
       </c>
-    </row>
-    <row r="192" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="S191" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="T191" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="U191" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="V191" s="3" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="192" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A192" t="s">
         <v>16</v>
       </c>
@@ -4448,8 +5467,20 @@
         <f t="shared" si="3"/>
         <v>&lt;0.0001</v>
       </c>
-    </row>
-    <row r="193" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="S192" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="T192" s="5">
+        <v>0.727701646874654</v>
+      </c>
+      <c r="U192" s="5">
+        <v>0.61850510628438005</v>
+      </c>
+      <c r="V192" s="29">
+        <v>0.64200000000000002</v>
+      </c>
+    </row>
+    <row r="193" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A193" t="s">
         <v>16</v>
       </c>
@@ -4499,8 +5530,20 @@
         <f t="shared" si="3"/>
         <v>0.44</v>
       </c>
-    </row>
-    <row r="194" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="S193" t="s">
+        <v>18</v>
+      </c>
+      <c r="T193" s="6">
+        <v>2.1803679362044401</v>
+      </c>
+      <c r="U193" s="6">
+        <v>0.97736330712431396</v>
+      </c>
+      <c r="V193" s="24">
+        <v>0.115</v>
+      </c>
+    </row>
+    <row r="194" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A194" t="s">
         <v>16</v>
       </c>
@@ -4550,8 +5593,20 @@
         <f t="shared" si="3"/>
         <v>&lt;0.0001</v>
       </c>
-    </row>
-    <row r="195" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="S194" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="T194" s="10">
+        <v>5.2758935533235602</v>
+      </c>
+      <c r="U194" s="10">
+        <v>1.0113147151211801</v>
+      </c>
+      <c r="V194" s="24" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="195" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A195" s="7" t="s">
         <v>16</v>
       </c>
@@ -4601,22 +5656,58 @@
         <f t="shared" si="3"/>
         <v>4.2999999999999997E-2</v>
       </c>
-    </row>
-    <row r="196" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="S195" t="s">
+        <v>20</v>
+      </c>
+      <c r="T195" s="6">
+        <v>1.4526662893297899</v>
+      </c>
+      <c r="U195" s="6">
+        <v>0.97072479511805299</v>
+      </c>
+      <c r="V195" s="24">
+        <v>0.44</v>
+      </c>
+    </row>
+    <row r="196" spans="1:22" x14ac:dyDescent="0.25">
       <c r="C196" s="6"/>
       <c r="D196" s="6"/>
-    </row>
-    <row r="197" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="S196" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="T196" s="10">
+        <v>4.5481919064489098</v>
+      </c>
+      <c r="U196" s="10">
+        <v>0.98766410442744501</v>
+      </c>
+      <c r="V196" s="24" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="197" spans="1:22" x14ac:dyDescent="0.25">
       <c r="B197" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="198" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="S197" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="T197" s="8">
+        <v>3.0955256171191201</v>
+      </c>
+      <c r="U197" s="8">
+        <v>1.17872817862512</v>
+      </c>
+      <c r="V197" s="30">
+        <v>4.2999999999999997E-2</v>
+      </c>
+    </row>
+    <row r="198" spans="1:22" x14ac:dyDescent="0.25">
       <c r="B198" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="199" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:22" x14ac:dyDescent="0.25">
       <c r="B199" t="s">
         <v>50</v>
       </c>
@@ -4624,5 +5715,6 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>